--- a/signals_and_components/D1-N9_GAD0_UWAVS_SigComp_WIP.xlsx
+++ b/signals_and_components/D1-N9_GAD0_UWAVS_SigComp_WIP.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="2114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5685" uniqueCount="2152">
   <si>
     <t xml:space="preserve">Component ID</t>
   </si>
@@ -3375,19 +3375,97 @@
     <t xml:space="preserve">55GAD0-PSU-9211: SREF-CCC</t>
   </si>
   <si>
-    <t xml:space="preserve">RF generator 1 frequency</t>
+    <t xml:space="preserve">RF generator 1 forward power</t>
   </si>
   <si>
     <t xml:space="preserve">D1-N9-GAD0-SIG-243</t>
   </si>
   <si>
+    <t xml:space="preserve">56GAD0-PSU-9211: SREF-CCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 1 reflected power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 1 tune cap position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57GAD0-PSU-9211: SREF-CCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 1 load cap position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55GAD0-CU-7303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58GAD0-PSU-9211: SREF-CCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 1 move tune cap position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55GAD0-CU-7304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59GAD0-PSU-9211: SREF-CCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 1 move load cap position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55GAD0-CU-7305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60GAD0-PSU-9211: SREF-CCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 1 phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55GAD0-CU-7306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61GAD0-PSU-9211: SREF-CCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 1 RF on/off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55GAD0-CU-7307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62GAD0-PSU-9211: SREF-CCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 1 sync bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55GAD0-CU-7308</t>
+  </si>
+  <si>
     <t xml:space="preserve">55GAD0-PSU-9211: JT-CRC</t>
   </si>
   <si>
-    <t xml:space="preserve">RF generator 1 power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-244</t>
+    <t xml:space="preserve">RF generator 1 matching mode</t>
   </si>
   <si>
     <t xml:space="preserve">55GAD0-PSU-9214: CON-CCC</t>
@@ -3396,43 +3474,100 @@
     <t xml:space="preserve">RF generator 2  command on</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-245</t>
-  </si>
-  <si>
     <t xml:space="preserve">55GAD0-PSU-9214: COF-CCC</t>
   </si>
   <si>
     <t xml:space="preserve">RF generator 2 command off</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-246</t>
-  </si>
-  <si>
     <t xml:space="preserve">55GAD0-PSU-9214: CREF-CCC</t>
   </si>
   <si>
     <t xml:space="preserve">RF generator 2 RF power set point</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-247</t>
-  </si>
-  <si>
     <t xml:space="preserve">55GAD0-PSU-9214: SREF-CCC</t>
   </si>
   <si>
-    <t xml:space="preserve">RF generator 2 frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-248</t>
+    <t xml:space="preserve">RF generator 2 forward power</t>
   </si>
   <si>
     <t xml:space="preserve">55GAD0-PSU-9214: JT-CRC</t>
   </si>
   <si>
-    <t xml:space="preserve">RF generator 2 power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-249</t>
+    <t xml:space="preserve">RF generator 2 reflected power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56GAD0-PSU-9214: JT-CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 2 tune cap position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57GAD0-PSU-9214: JT-CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 2 load cap position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58GAD0-PSU-9214: JT-CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 2 move tune cap position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59GAD0-PSU-9214: JT-CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 2 move load cap position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60GAD0-PSU-9214: JT-CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 2 phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61GAD0-PSU-9214: JT-CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 2 RF on/off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62GAD0-PSU-9214: JT-CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 2 sync bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-N9-GAD0-SIG-256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63GAD0-PSU-9214: JT-CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF generator 2 matching mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55GAD0-CU-7309</t>
   </si>
   <si>
     <t xml:space="preserve">55GAD0-PSU-9001: JT-CRC</t>
@@ -3441,58 +3576,37 @@
     <t xml:space="preserve">DCPS1 power</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-250</t>
-  </si>
-  <si>
     <t xml:space="preserve">55GAD0-PSU-9002: JT-CRC</t>
   </si>
   <si>
     <t xml:space="preserve">DCPS2 power</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-251</t>
-  </si>
-  <si>
     <t xml:space="preserve">55GAD0-PSU-9003: JT-CRC</t>
   </si>
   <si>
     <t xml:space="preserve">DCPS3 power</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-252</t>
-  </si>
-  <si>
     <t xml:space="preserve">55GAD0-PSU-9004: JT-CRC</t>
   </si>
   <si>
     <t xml:space="preserve">DCPS4 power</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-253</t>
-  </si>
-  <si>
     <t xml:space="preserve">55GAD0-SCI-9101: JT-CRC</t>
   </si>
   <si>
     <t xml:space="preserve">filament signal conditioning</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-254</t>
-  </si>
-  <si>
     <t xml:space="preserve">55GAD0-ATC-1009: CO-CRC</t>
   </si>
   <si>
     <t xml:space="preserve">55GAD0-ATC-1009</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-255</t>
-  </si>
-  <si>
     <t xml:space="preserve">55GAD0-ATC-1010: CO-CRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1-N9-GAD0-SIG-256</t>
   </si>
   <si>
     <t xml:space="preserve">55GAD0-MZL-0301:ZL-CRC</t>
@@ -6664,7 +6778,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6823,10 +6937,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -7209,7 +7319,7 @@
   </sheetPr>
   <dimension ref="A1:R1249"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A184" activeCellId="0" sqref="A184"/>
     </sheetView>
   </sheetViews>
@@ -16218,10 +16328,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P280"/>
+  <dimension ref="A1:P296"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A250" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D268" activeCellId="0" sqref="D268"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A239" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F252" activeCellId="0" sqref="F252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24017,7 +24127,7 @@
         <v>650</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="G242" s="11" t="s">
         <v>546</v>
@@ -24077,8 +24187,8 @@
       <c r="D244" s="11" t="s">
         <v>1120</v>
       </c>
-      <c r="E244" s="11" t="s">
-        <v>544</v>
+      <c r="E244" s="21" t="s">
+        <v>650</v>
       </c>
       <c r="F244" s="11" t="s">
         <v>608</v>
@@ -24090,7 +24200,7 @@
         <v>609</v>
       </c>
       <c r="I244" s="11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J244" s="11" t="s">
         <v>65</v>
@@ -24098,18 +24208,18 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D245" s="11" t="s">
         <v>1121</v>
       </c>
-      <c r="B245" s="11" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="D245" s="11" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E245" s="11" t="s">
+      <c r="E245" s="21" t="s">
         <v>650</v>
       </c>
       <c r="F245" s="11" t="s">
@@ -24122,7 +24232,7 @@
         <v>609</v>
       </c>
       <c r="I245" s="11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J245" s="11" t="s">
         <v>65</v>
@@ -24130,18 +24240,18 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D246" s="11" t="s">
         <v>1124</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E246" s="11" t="s">
+      <c r="E246" s="21" t="s">
         <v>650</v>
       </c>
       <c r="F246" s="11" t="s">
@@ -24154,7 +24264,7 @@
         <v>609</v>
       </c>
       <c r="I246" s="11" t="s">
-        <v>23</v>
+        <v>1125</v>
       </c>
       <c r="J246" s="11" t="s">
         <v>65</v>
@@ -24162,22 +24272,22 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B247" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="B247" s="11" t="s">
+      <c r="C247" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D247" s="11" t="s">
         <v>1128</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>1129</v>
       </c>
       <c r="E247" s="21" t="s">
         <v>650</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="G247" s="11" t="s">
         <v>546</v>
@@ -24186,7 +24296,7 @@
         <v>609</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>23</v>
+        <v>1129</v>
       </c>
       <c r="J247" s="11" t="s">
         <v>65</v>
@@ -24200,7 +24310,7 @@
         <v>1131</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="D248" s="11" t="s">
         <v>1132</v>
@@ -24209,7 +24319,7 @@
         <v>650</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="G248" s="11" t="s">
         <v>546</v>
@@ -24218,7 +24328,7 @@
         <v>609</v>
       </c>
       <c r="I248" s="11" t="s">
-        <v>23</v>
+        <v>1133</v>
       </c>
       <c r="J248" s="11" t="s">
         <v>65</v>
@@ -24226,22 +24336,22 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E249" s="11" t="s">
-        <v>544</v>
+        <v>1136</v>
+      </c>
+      <c r="E249" s="21" t="s">
+        <v>650</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="G249" s="11" t="s">
         <v>546</v>
@@ -24250,7 +24360,7 @@
         <v>609</v>
       </c>
       <c r="I249" s="11" t="s">
-        <v>23</v>
+        <v>1137</v>
       </c>
       <c r="J249" s="11" t="s">
         <v>65</v>
@@ -24258,22 +24368,22 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B250" s="21" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C250" s="21" t="s">
-        <v>454</v>
+        <v>1138</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E250" s="11" t="s">
-        <v>544</v>
+        <v>1140</v>
+      </c>
+      <c r="E250" s="21" t="s">
+        <v>650</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="G250" s="11" t="s">
         <v>546</v>
@@ -24282,7 +24392,7 @@
         <v>609</v>
       </c>
       <c r="I250" s="11" t="s">
-        <v>23</v>
+        <v>1141</v>
       </c>
       <c r="J250" s="11" t="s">
         <v>65</v>
@@ -24290,22 +24400,22 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B251" s="21" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C251" s="21" t="s">
-        <v>458</v>
+        <v>1142</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E251" s="11" t="s">
-        <v>544</v>
+        <v>1144</v>
+      </c>
+      <c r="E251" s="21" t="s">
+        <v>650</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="G251" s="11" t="s">
         <v>546</v>
@@ -24314,30 +24424,30 @@
         <v>609</v>
       </c>
       <c r="I251" s="11" t="s">
-        <v>23</v>
+        <v>1145</v>
       </c>
       <c r="J251" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="13" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>462</v>
+      <c r="A252" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>544</v>
+        <v>650</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="G252" s="11" t="s">
         <v>546</v>
@@ -24353,20 +24463,20 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="13" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B253" s="13" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>466</v>
+      <c r="A253" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>544</v>
+        <v>650</v>
       </c>
       <c r="F253" s="11" t="s">
         <v>608</v>
@@ -24386,25 +24496,25 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1148</v>
+        <v>1126</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>609</v>
+        <v>650</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G254" s="11" t="s">
-        <v>609</v>
+        <v>546</v>
       </c>
       <c r="H254" s="11" t="s">
         <v>609</v>
@@ -24418,28 +24528,28 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B255" s="38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B255" s="11" t="s">
         <v>1152</v>
       </c>
-      <c r="C255" s="38" t="s">
+      <c r="C255" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D255" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="D255" s="38" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E255" s="39" t="s">
-        <v>544</v>
-      </c>
-      <c r="F255" s="39" t="s">
-        <v>608</v>
-      </c>
-      <c r="G255" s="39" t="s">
+      <c r="E255" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G255" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="H255" s="39" t="s">
-        <v>560</v>
+      <c r="H255" s="11" t="s">
+        <v>609</v>
       </c>
       <c r="I255" s="11" t="s">
         <v>23</v>
@@ -24450,28 +24560,28 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B256" s="11" t="s">
         <v>1154</v>
       </c>
-      <c r="B256" s="38" t="s">
+      <c r="C256" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D256" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="C256" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="D256" s="38" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E256" s="39" t="s">
-        <v>544</v>
-      </c>
-      <c r="F256" s="39" t="s">
+      <c r="E256" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="F256" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="G256" s="39" t="s">
+      <c r="G256" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="H256" s="39" t="s">
-        <v>560</v>
+      <c r="H256" s="11" t="s">
+        <v>609</v>
       </c>
       <c r="I256" s="11" t="s">
         <v>23</v>
@@ -24481,29 +24591,29 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="21" t="s">
+      <c r="A257" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B257" s="11" t="s">
         <v>1156</v>
       </c>
-      <c r="B257" s="31" t="s">
+      <c r="C257" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D257" s="11" t="s">
         <v>1157</v>
       </c>
-      <c r="C257" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E257" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F257" s="40" t="s">
+      <c r="E257" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F257" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="G257" s="40" t="s">
+      <c r="G257" s="11" t="s">
         <v>546</v>
       </c>
       <c r="H257" s="11" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="I257" s="11" t="s">
         <v>23</v>
@@ -24513,285 +24623,285 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="21" t="s">
+      <c r="A258" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D258" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="B258" s="31" t="s">
+      <c r="E258" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G258" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H258" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I258" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J258" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="C258" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="D258" s="1" t="s">
+      <c r="B259" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="E258" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F258" s="40" t="s">
+      <c r="C259" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F259" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="G258" s="40" t="s">
+      <c r="G259" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="H258" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I258" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J258" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="21" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B259" s="31" t="s">
+      <c r="H259" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I259" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J259" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="C259" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="D259" s="41" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E259" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F259" s="40" t="s">
+      <c r="B260" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H260" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I260" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J260" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G261" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H261" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I261" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J261" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I262" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J262" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G263" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H263" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I263" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J263" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G264" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H264" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I264" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J264" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G265" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H265" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I265" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J265" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B266" s="21" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C266" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F266" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="G259" s="40" t="s">
+      <c r="G266" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="H259" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I259" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J259" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="21" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B260" s="31" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C260" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="D260" s="41" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E260" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F260" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="G260" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="H260" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I260" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J260" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="21" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B261" s="31" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C261" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="D261" s="41" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E261" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F261" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="G261" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="H261" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I261" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J261" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="21" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B262" s="31" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C262" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="D262" s="41" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E262" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F262" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="G262" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="H262" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I262" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J262" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="21" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B263" s="31" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C263" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="D263" s="41" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E263" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F263" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="G263" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="H263" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I263" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J263" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="21" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B264" s="31" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C264" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="D264" s="41" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E264" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F264" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="G264" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="H264" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I264" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J264" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="21" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B265" s="31" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C265" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="D265" s="41" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E265" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F265" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="G265" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="H265" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="I265" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J265" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="21" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B266" s="31" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C266" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="D266" s="41" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E266" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F266" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="G266" s="40" t="s">
-        <v>546</v>
-      </c>
       <c r="H266" s="11" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="I266" s="11" t="s">
         <v>23</v>
@@ -24801,29 +24911,29 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="21" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B267" s="31" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C267" s="31" t="s">
-        <v>491</v>
-      </c>
-      <c r="D267" s="41" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E267" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F267" s="40" t="s">
+      <c r="A267" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B267" s="21" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C267" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F267" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="G267" s="40" t="s">
+      <c r="G267" s="11" t="s">
         <v>546</v>
       </c>
       <c r="H267" s="11" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="I267" s="11" t="s">
         <v>23</v>
@@ -24833,29 +24943,29 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="21" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B268" s="31" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C268" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="D268" s="41" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E268" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F268" s="40" t="s">
+      <c r="A268" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F268" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="G268" s="40" t="s">
+      <c r="G268" s="11" t="s">
         <v>546</v>
       </c>
       <c r="H268" s="11" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="I268" s="11" t="s">
         <v>23</v>
@@ -24865,29 +24975,29 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="21" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B269" s="31" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C269" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="D269" s="41" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E269" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F269" s="40" t="s">
+      <c r="A269" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F269" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="G269" s="40" t="s">
+      <c r="G269" s="11" t="s">
         <v>546</v>
       </c>
       <c r="H269" s="11" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="I269" s="11" t="s">
         <v>23</v>
@@ -24897,29 +25007,29 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="21" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B270" s="31" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C270" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="D270" s="41" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E270" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F270" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="G270" s="40" t="s">
-        <v>546</v>
+      <c r="A270" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="G270" s="11" t="s">
+        <v>609</v>
       </c>
       <c r="H270" s="11" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="I270" s="11" t="s">
         <v>23</v>
@@ -24929,29 +25039,29 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="21" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B271" s="31" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C271" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E271" s="40" t="s">
+      <c r="A271" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B271" s="38" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C271" s="38" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D271" s="38" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E271" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="F271" s="40" t="s">
+      <c r="F271" s="39" t="s">
         <v>608</v>
       </c>
-      <c r="G271" s="40" t="s">
+      <c r="G271" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="H271" s="11" t="s">
-        <v>846</v>
+      <c r="H271" s="39" t="s">
+        <v>560</v>
       </c>
       <c r="I271" s="11" t="s">
         <v>23</v>
@@ -24961,29 +25071,29 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="21" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B272" s="31" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C272" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E272" s="40" t="s">
+      <c r="A272" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B272" s="38" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C272" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="D272" s="38" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E272" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="F272" s="40" t="s">
+      <c r="F272" s="39" t="s">
         <v>608</v>
       </c>
-      <c r="G272" s="40" t="s">
+      <c r="G272" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="H272" s="11" t="s">
-        <v>846</v>
+      <c r="H272" s="39" t="s">
+        <v>560</v>
       </c>
       <c r="I272" s="11" t="s">
         <v>23</v>
@@ -24994,28 +25104,28 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="21" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="B273" s="31" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C273" s="31" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E273" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F273" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F273" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="G273" s="40" t="s">
+      <c r="G273" s="0" t="s">
         <v>546</v>
       </c>
       <c r="H273" s="11" t="s">
-        <v>846</v>
+        <v>560</v>
       </c>
       <c r="I273" s="11" t="s">
         <v>23</v>
@@ -25026,24 +25136,24 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="21" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="C274" s="31" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E274" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F274" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="G274" s="40" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G274" s="0" t="s">
         <v>546</v>
       </c>
       <c r="H274" s="11" t="s">
@@ -25058,24 +25168,24 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B275" s="31" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C275" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="D275" s="40" t="s">
         <v>1196</v>
       </c>
-      <c r="B275" s="31" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C275" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E275" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F275" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="G275" s="40" t="s">
+      <c r="E275" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G275" s="0" t="s">
         <v>546</v>
       </c>
       <c r="H275" s="11" t="s">
@@ -25090,24 +25200,24 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="21" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="B276" s="31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C276" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D276" s="40" t="s">
         <v>1199</v>
       </c>
-      <c r="C276" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E276" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F276" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="G276" s="40" t="s">
+      <c r="E276" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G276" s="0" t="s">
         <v>546</v>
       </c>
       <c r="H276" s="11" t="s">
@@ -25122,24 +25232,24 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="21" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="C277" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E277" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F277" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="G277" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D277" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G277" s="0" t="s">
         <v>546</v>
       </c>
       <c r="H277" s="11" t="s">
@@ -25154,24 +25264,24 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="21" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="C278" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E278" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F278" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="G278" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="D278" s="40" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F278" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G278" s="0" t="s">
         <v>546</v>
       </c>
       <c r="H278" s="11" t="s">
@@ -25186,24 +25296,24 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="21" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="C279" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E279" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F279" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="G279" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="D279" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G279" s="0" t="s">
         <v>546</v>
       </c>
       <c r="H279" s="11" t="s">
@@ -25218,24 +25328,24 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="21" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="C280" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E280" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F280" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="G280" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="D280" s="40" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G280" s="0" t="s">
         <v>546</v>
       </c>
       <c r="H280" s="11" t="s">
@@ -25245,6 +25355,518 @@
         <v>23</v>
       </c>
       <c r="J280" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B281" s="31" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C281" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="D281" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G281" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H281" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I281" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J281" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="21" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B282" s="31" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C282" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="D282" s="40" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G282" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H282" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I282" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J282" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B283" s="31" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C283" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="D283" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G283" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H283" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I283" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J283" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B284" s="31" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C284" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D284" s="40" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G284" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H284" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I284" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J284" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B285" s="31" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C285" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="D285" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G285" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H285" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I285" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J285" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="21" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B286" s="31" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C286" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="D286" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G286" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H286" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I286" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J286" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B287" s="31" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C287" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G287" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H287" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="I287" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J287" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="21" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B288" s="31" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C288" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G288" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H288" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="I288" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J288" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="21" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B289" s="31" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C289" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G289" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H289" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="I289" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J289" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="21" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B290" s="31" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C290" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="G290" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H290" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I290" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J290" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="21" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B291" s="31" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C291" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="G291" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H291" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I291" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J291" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="21" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B292" s="31" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C292" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="G292" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H292" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I292" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J292" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="21" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B293" s="31" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C293" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="G293" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H293" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I293" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J293" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="21" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B294" s="31" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C294" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="G294" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H294" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I294" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J294" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="21" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B295" s="31" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C295" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="G295" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H295" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I295" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J295" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="21" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B296" s="31" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C296" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H296" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I296" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J296" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -25260,23 +25882,23 @@
       <formula1>"4 20 mA,0 +10 V,[-5 +5] V,[-10 +10] V,PT 100,T/C Type K,T/C Type N,24 V DC,Fieldbus"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H21:H26 H198:H202 H214:H221 H240:H254 E254:G254 H257:H280" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H21:H26 H198:H202 H214:H221 H240:H270 E270:G270 H273:H296" type="list">
       <formula1>"custom,4 20 mA,0 +10 V,[-5 +5] V,[-10 +10] V,PT 100,T/C Type K,T/C Type N,24 V DC,Fieldbus"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G18:G132 G142:G150 G156:G229 G231:G238 G240:G253" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G18:G132 G142:G150 G156:G229 G231:G238 G240:G269" type="list">
       <formula1>"N,P"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F18:F132 F142:F150 F156:F229 F231:F238 F240:F253" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F18:F132 F142:F150 F156:F229 F231:F238 F240:F269" type="list">
       <formula1>"I,O"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E18:E132 E142:E150 E156:E229 E231:E238 E240:E253" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E18:E132 E142:E150 E156:E229 E231:E238 E240:E269" type="list">
       <formula1>"A,D"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2:J280" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2:J296" type="list">
       <formula1>"unconfirmed,confirmed good,confirmed bad,obsolete,deprecated,unknown,delete"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -25313,4541 +25935,4541 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>1209</v>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F2" s="48" t="s">
+      <c r="A2" s="44" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>538</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="48" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="47" t="s">
         <v>537</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>1214</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>1213</v>
-      </c>
-      <c r="N2" s="52" t="s">
+      <c r="I2" s="49" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N2" s="51" t="s">
         <v>536</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="O2" s="51"/>
+      <c r="Q2" s="51" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58" t="s">
+      <c r="A3" s="52" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57" t="s">
         <v>546</v>
       </c>
-      <c r="I3" s="59" t="s">
-        <v>1219</v>
-      </c>
-      <c r="K3" s="58" t="s">
+      <c r="I3" s="58" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K3" s="57" t="s">
         <v>650</v>
       </c>
-      <c r="L3" s="60" t="s">
-        <v>1220</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>1221</v>
-      </c>
-      <c r="O3" s="46" t="s">
+      <c r="L3" s="59" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O3" s="45" t="s">
         <v>608</v>
       </c>
-      <c r="Q3" s="61" t="s">
-        <v>1222</v>
+      <c r="Q3" s="60" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="56" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="58" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K4" s="58" t="s">
+      <c r="F4" s="55" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G4" s="61"/>
+      <c r="H4" s="57" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K4" s="57" t="s">
         <v>544</v>
       </c>
-      <c r="L4" s="59" t="s">
-        <v>1226</v>
-      </c>
-      <c r="N4" s="46" t="s">
-        <v>1227</v>
-      </c>
-      <c r="O4" s="46" t="s">
+      <c r="L4" s="58" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O4" s="45" t="s">
         <v>545</v>
       </c>
-      <c r="Q4" s="61" t="s">
-        <v>1228</v>
+      <c r="Q4" s="60" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>1230</v>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>1268</v>
       </c>
       <c r="G5" s="36"/>
-      <c r="Q5" s="61" t="s">
-        <v>1231</v>
+      <c r="Q5" s="60" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>1234</v>
+      <c r="A6" s="44" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>1272</v>
       </c>
       <c r="G6" s="36"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
-      <c r="Q6" s="61" t="s">
-        <v>1235</v>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="Q6" s="60" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F7" s="56" t="s">
+      <c r="A7" s="52" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F7" s="55" t="s">
         <v>846</v>
       </c>
       <c r="G7" s="36"/>
-      <c r="Q7" s="61" t="s">
-        <v>1239</v>
+      <c r="Q7" s="60" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="56" t="s">
-        <v>1240</v>
+      <c r="F8" s="55" t="s">
+        <v>1278</v>
       </c>
       <c r="G8" s="36"/>
-      <c r="Q8" s="61" t="s">
-        <v>1241</v>
+      <c r="Q8" s="60" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F9" s="56" t="s">
+      <c r="A9" s="65" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F9" s="55" t="s">
         <v>599</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="Q9" s="61" t="s">
-        <v>1244</v>
+      <c r="Q9" s="60" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F10" s="56" t="s">
+      <c r="A10" s="67" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>560</v>
       </c>
       <c r="G10" s="36"/>
-      <c r="Q10" s="61" t="s">
-        <v>1247</v>
+      <c r="Q10" s="60" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>1250</v>
+      <c r="A11" s="67" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>1288</v>
       </c>
       <c r="G11" s="36"/>
-      <c r="Q11" s="61" t="s">
-        <v>1251</v>
+      <c r="Q11" s="60" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>1254</v>
+      <c r="A12" s="67" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>1292</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>536</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>1213</v>
-      </c>
-      <c r="Q12" s="61" t="s">
-        <v>1255</v>
+        <v>1251</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>1258</v>
+      <c r="A13" s="67" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>1296</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="Q13" s="61" t="s">
-        <v>1259</v>
+      <c r="Q13" s="60" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>1261</v>
+      <c r="A14" s="70" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>1299</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="F14" s="56" t="s">
-        <v>1262</v>
+      <c r="F14" s="55" t="s">
+        <v>1300</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="Q14" s="61" t="s">
-        <v>1263</v>
+      <c r="Q14" s="60" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="39" t="s">
-        <v>1264</v>
+        <v>1302</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>1265</v>
-      </c>
-      <c r="Q15" s="61" t="s">
-        <v>1266</v>
+        <v>1303</v>
+      </c>
+      <c r="Q15" s="60" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q16" s="61" t="s">
-        <v>1267</v>
+      <c r="Q16" s="60" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="36" t="s">
-        <v>1268</v>
-      </c>
-      <c r="Q17" s="61" t="s">
-        <v>1269</v>
+        <v>1306</v>
+      </c>
+      <c r="Q17" s="60" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="36" t="s">
         <v>547</v>
       </c>
-      <c r="Q18" s="61" t="s">
-        <v>1270</v>
+      <c r="Q18" s="60" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q19" s="61" t="s">
-        <v>1271</v>
+      <c r="Q19" s="60" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="36" t="s">
-        <v>1272</v>
-      </c>
-      <c r="Q20" s="61" t="s">
-        <v>1273</v>
+        <v>1310</v>
+      </c>
+      <c r="Q20" s="60" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="36" t="s">
-        <v>1274</v>
-      </c>
-      <c r="Q21" s="61" t="s">
-        <v>1275</v>
+        <v>1312</v>
+      </c>
+      <c r="Q21" s="60" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="61" t="s">
-        <v>1276</v>
+      <c r="Q22" s="60" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="36" t="s">
-        <v>1277</v>
-      </c>
-      <c r="Q23" s="61" t="s">
-        <v>1278</v>
+        <v>1315</v>
+      </c>
+      <c r="Q23" s="60" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="36" t="s">
-        <v>1279</v>
-      </c>
-      <c r="Q24" s="61" t="s">
-        <v>1280</v>
+        <v>1317</v>
+      </c>
+      <c r="Q24" s="60" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q25" s="61" t="s">
-        <v>1281</v>
+      <c r="Q25" s="60" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="Q26" s="61" t="s">
-        <v>1282</v>
+      <c r="Q26" s="60" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="36" t="s">
-        <v>1283</v>
-      </c>
-      <c r="Q27" s="61" t="s">
-        <v>1284</v>
+        <v>1321</v>
+      </c>
+      <c r="Q27" s="60" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="36" t="s">
-        <v>1285</v>
-      </c>
-      <c r="Q28" s="61" t="s">
-        <v>1286</v>
+        <v>1323</v>
+      </c>
+      <c r="Q28" s="60" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="36" t="s">
-        <v>1287</v>
-      </c>
-      <c r="Q29" s="61" t="s">
-        <v>1288</v>
+        <v>1325</v>
+      </c>
+      <c r="Q29" s="60" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="36" t="s">
-        <v>1289</v>
-      </c>
-      <c r="Q30" s="61" t="s">
-        <v>1290</v>
+        <v>1327</v>
+      </c>
+      <c r="Q30" s="60" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="36" t="s">
-        <v>1291</v>
-      </c>
-      <c r="Q31" s="61" t="s">
-        <v>1292</v>
+        <v>1329</v>
+      </c>
+      <c r="Q31" s="60" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="36"/>
-      <c r="Q32" s="61" t="s">
-        <v>1293</v>
+      <c r="Q32" s="60" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q33" s="61" t="s">
-        <v>1294</v>
+      <c r="Q33" s="60" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q34" s="61" t="s">
-        <v>1295</v>
+      <c r="Q34" s="60" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q35" s="61" t="s">
-        <v>1296</v>
+      <c r="Q35" s="60" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q36" s="61" t="s">
-        <v>1297</v>
+      <c r="Q36" s="60" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q37" s="61" t="s">
-        <v>1298</v>
+      <c r="Q37" s="60" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q38" s="61" t="s">
-        <v>1299</v>
+      <c r="Q38" s="60" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q39" s="61" t="s">
-        <v>1300</v>
+      <c r="Q39" s="60" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q40" s="61" t="s">
-        <v>1301</v>
+      <c r="Q40" s="60" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q41" s="61" t="s">
-        <v>1302</v>
+      <c r="Q41" s="60" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q42" s="61" t="s">
-        <v>1303</v>
+      <c r="Q42" s="60" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q43" s="61" t="s">
-        <v>1304</v>
+      <c r="Q43" s="60" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q44" s="61" t="s">
-        <v>1305</v>
+      <c r="Q44" s="60" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q45" s="61" t="s">
-        <v>1306</v>
+      <c r="Q45" s="60" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q46" s="61" t="s">
-        <v>1307</v>
+      <c r="Q46" s="60" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q47" s="61" t="s">
-        <v>1308</v>
+      <c r="Q47" s="60" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q48" s="61" t="s">
-        <v>1309</v>
+      <c r="Q48" s="60" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q49" s="61" t="s">
-        <v>1310</v>
+      <c r="Q49" s="60" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q50" s="61" t="s">
-        <v>1311</v>
+      <c r="Q50" s="60" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q51" s="61" t="s">
-        <v>1312</v>
+      <c r="Q51" s="60" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q52" s="61" t="s">
-        <v>1313</v>
+      <c r="Q52" s="60" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q53" s="61" t="s">
-        <v>1314</v>
+      <c r="Q53" s="60" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q54" s="61" t="s">
-        <v>1315</v>
+      <c r="Q54" s="60" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q55" s="61" t="s">
-        <v>1316</v>
+      <c r="Q55" s="60" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q56" s="61" t="s">
-        <v>1317</v>
+      <c r="Q56" s="60" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q57" s="61" t="s">
-        <v>1318</v>
+      <c r="Q57" s="60" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q58" s="61" t="s">
-        <v>1319</v>
+      <c r="Q58" s="60" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q59" s="61" t="s">
-        <v>1320</v>
+      <c r="Q59" s="60" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q60" s="61" t="s">
-        <v>1321</v>
+      <c r="Q60" s="60" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q61" s="61" t="s">
-        <v>1322</v>
+      <c r="Q61" s="60" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q62" s="61" t="s">
-        <v>1323</v>
+      <c r="Q62" s="60" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q63" s="61" t="s">
-        <v>1324</v>
+      <c r="Q63" s="60" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q64" s="61" t="s">
-        <v>1325</v>
+      <c r="Q64" s="60" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q65" s="61" t="s">
-        <v>1326</v>
+      <c r="Q65" s="60" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q66" s="61" t="s">
-        <v>1327</v>
+      <c r="Q66" s="60" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q67" s="61" t="s">
-        <v>1328</v>
+      <c r="Q67" s="60" t="s">
+        <v>1366</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q68" s="61" t="s">
-        <v>1329</v>
+      <c r="Q68" s="60" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q69" s="61" t="s">
-        <v>1330</v>
+      <c r="Q69" s="60" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q70" s="61" t="s">
-        <v>1331</v>
+      <c r="Q70" s="60" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q71" s="61" t="s">
-        <v>1332</v>
+      <c r="Q71" s="60" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q72" s="61" t="s">
-        <v>1333</v>
+      <c r="Q72" s="60" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q73" s="61" t="s">
-        <v>1334</v>
+      <c r="Q73" s="60" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q74" s="61" t="s">
-        <v>1335</v>
+      <c r="Q74" s="60" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q75" s="61" t="s">
-        <v>1336</v>
+      <c r="Q75" s="60" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q76" s="61" t="s">
-        <v>1337</v>
+      <c r="Q76" s="60" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q77" s="61" t="s">
-        <v>1338</v>
+      <c r="Q77" s="60" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q78" s="61" t="s">
-        <v>1339</v>
+      <c r="Q78" s="60" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q79" s="61" t="s">
-        <v>1340</v>
+      <c r="Q79" s="60" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q80" s="61" t="s">
-        <v>1341</v>
+      <c r="Q80" s="60" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q81" s="61" t="s">
-        <v>1342</v>
+      <c r="Q81" s="60" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q82" s="61" t="s">
-        <v>1343</v>
+      <c r="Q82" s="60" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q83" s="61" t="s">
-        <v>1344</v>
+      <c r="Q83" s="60" t="s">
+        <v>1382</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q84" s="61" t="s">
-        <v>1345</v>
+      <c r="Q84" s="60" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q85" s="61" t="s">
-        <v>1346</v>
+      <c r="Q85" s="60" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q86" s="61" t="s">
-        <v>1347</v>
+      <c r="Q86" s="60" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q87" s="61" t="s">
-        <v>1348</v>
+      <c r="Q87" s="60" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q88" s="61" t="s">
-        <v>1349</v>
+      <c r="Q88" s="60" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q89" s="61" t="s">
-        <v>1350</v>
+      <c r="Q89" s="60" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q90" s="61" t="s">
-        <v>1351</v>
+      <c r="Q90" s="60" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q91" s="61" t="s">
-        <v>1352</v>
+      <c r="Q91" s="60" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q92" s="61" t="s">
-        <v>1353</v>
+      <c r="Q92" s="60" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q93" s="61" t="s">
-        <v>1354</v>
+      <c r="Q93" s="60" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q94" s="61" t="s">
-        <v>1355</v>
+      <c r="Q94" s="60" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q95" s="61" t="s">
-        <v>1356</v>
+      <c r="Q95" s="60" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q96" s="61" t="s">
-        <v>1357</v>
+      <c r="Q96" s="60" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q97" s="61" t="s">
-        <v>1358</v>
+      <c r="Q97" s="60" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q98" s="61" t="s">
-        <v>1359</v>
+      <c r="Q98" s="60" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q99" s="61" t="s">
-        <v>1360</v>
+      <c r="Q99" s="60" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q100" s="61" t="s">
-        <v>1361</v>
+      <c r="Q100" s="60" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q101" s="61" t="s">
-        <v>1362</v>
+      <c r="Q101" s="60" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q102" s="61" t="s">
-        <v>1363</v>
+      <c r="Q102" s="60" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q103" s="61" t="s">
-        <v>1364</v>
+      <c r="Q103" s="60" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q104" s="61" t="s">
-        <v>1365</v>
+      <c r="Q104" s="60" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q105" s="61" t="s">
-        <v>1366</v>
+      <c r="Q105" s="60" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q106" s="61" t="s">
-        <v>1367</v>
+      <c r="Q106" s="60" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q107" s="61" t="s">
-        <v>1368</v>
+      <c r="Q107" s="60" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q108" s="61" t="s">
-        <v>1369</v>
+      <c r="Q108" s="60" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q109" s="61" t="s">
-        <v>1370</v>
+      <c r="Q109" s="60" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q110" s="61" t="s">
-        <v>1371</v>
+      <c r="Q110" s="60" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q111" s="61" t="s">
-        <v>1372</v>
+      <c r="Q111" s="60" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q112" s="61" t="s">
-        <v>1373</v>
+      <c r="Q112" s="60" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q113" s="61" t="s">
-        <v>1374</v>
+      <c r="Q113" s="60" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q114" s="61" t="s">
-        <v>1375</v>
+      <c r="Q114" s="60" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q115" s="61" t="s">
-        <v>1376</v>
+      <c r="Q115" s="60" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q116" s="61" t="s">
-        <v>1377</v>
+      <c r="Q116" s="60" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q117" s="61" t="s">
-        <v>1378</v>
+      <c r="Q117" s="60" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q118" s="61" t="s">
-        <v>1379</v>
+      <c r="Q118" s="60" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q119" s="61" t="s">
-        <v>1380</v>
+      <c r="Q119" s="60" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q120" s="61" t="s">
-        <v>1381</v>
+      <c r="Q120" s="60" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q121" s="61" t="s">
-        <v>1382</v>
+      <c r="Q121" s="60" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q122" s="61" t="s">
-        <v>1383</v>
+      <c r="Q122" s="60" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q123" s="61" t="s">
-        <v>1384</v>
+      <c r="Q123" s="60" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q124" s="61" t="s">
-        <v>1385</v>
+      <c r="Q124" s="60" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q125" s="61" t="s">
-        <v>1386</v>
+      <c r="Q125" s="60" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q126" s="61" t="s">
-        <v>1387</v>
+      <c r="Q126" s="60" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q127" s="61" t="s">
-        <v>1388</v>
+      <c r="Q127" s="60" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q128" s="61" t="s">
-        <v>1389</v>
+      <c r="Q128" s="60" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q129" s="61" t="s">
-        <v>1390</v>
+      <c r="Q129" s="60" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q130" s="61" t="s">
-        <v>1391</v>
+      <c r="Q130" s="60" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q131" s="61" t="s">
-        <v>1392</v>
+      <c r="Q131" s="60" t="s">
+        <v>1430</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q132" s="61" t="s">
-        <v>1393</v>
+      <c r="Q132" s="60" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q133" s="61" t="s">
-        <v>1394</v>
+      <c r="Q133" s="60" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q134" s="61" t="s">
-        <v>1395</v>
+      <c r="Q134" s="60" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q135" s="61" t="s">
-        <v>1396</v>
+      <c r="Q135" s="60" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q136" s="61" t="s">
-        <v>1397</v>
+      <c r="Q136" s="60" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q137" s="61" t="s">
-        <v>1398</v>
+      <c r="Q137" s="60" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q138" s="61" t="s">
-        <v>1399</v>
+      <c r="Q138" s="60" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q139" s="61" t="s">
-        <v>1400</v>
+      <c r="Q139" s="60" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q140" s="61" t="s">
-        <v>1401</v>
+      <c r="Q140" s="60" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q141" s="61" t="s">
-        <v>1402</v>
+      <c r="Q141" s="60" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q142" s="61" t="s">
-        <v>1403</v>
+      <c r="Q142" s="60" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q143" s="61" t="s">
-        <v>1404</v>
+      <c r="Q143" s="60" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q144" s="61" t="s">
-        <v>1405</v>
+      <c r="Q144" s="60" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q145" s="61" t="s">
-        <v>1406</v>
+      <c r="Q145" s="60" t="s">
+        <v>1444</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q146" s="61" t="s">
-        <v>1407</v>
+      <c r="Q146" s="60" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q147" s="61" t="s">
-        <v>1408</v>
+      <c r="Q147" s="60" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q148" s="61" t="s">
-        <v>1409</v>
+      <c r="Q148" s="60" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q149" s="61" t="s">
-        <v>1410</v>
+      <c r="Q149" s="60" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q150" s="61" t="s">
-        <v>1411</v>
+      <c r="Q150" s="60" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q151" s="61" t="s">
-        <v>1412</v>
+      <c r="Q151" s="60" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q152" s="61" t="s">
+      <c r="Q152" s="60" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q153" s="61" t="s">
+      <c r="Q153" s="60" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q154" s="61" t="s">
-        <v>1413</v>
+      <c r="Q154" s="60" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q155" s="61" t="s">
-        <v>1414</v>
+      <c r="Q155" s="60" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q156" s="61" t="s">
-        <v>1415</v>
+      <c r="Q156" s="60" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q157" s="61" t="s">
-        <v>1416</v>
+      <c r="Q157" s="60" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q158" s="61" t="s">
-        <v>1417</v>
+      <c r="Q158" s="60" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q159" s="61" t="s">
-        <v>1418</v>
+      <c r="Q159" s="60" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q160" s="61" t="s">
-        <v>1419</v>
+      <c r="Q160" s="60" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q161" s="61" t="s">
-        <v>1420</v>
+      <c r="Q161" s="60" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q162" s="61" t="s">
-        <v>1421</v>
+      <c r="Q162" s="60" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q163" s="61" t="s">
-        <v>1422</v>
+      <c r="Q163" s="60" t="s">
+        <v>1460</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q164" s="61" t="s">
-        <v>1423</v>
+      <c r="Q164" s="60" t="s">
+        <v>1461</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q165" s="61" t="s">
-        <v>1424</v>
+      <c r="Q165" s="60" t="s">
+        <v>1462</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q166" s="61" t="s">
-        <v>1425</v>
+      <c r="Q166" s="60" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q167" s="61" t="s">
-        <v>1426</v>
+      <c r="Q167" s="60" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q168" s="61" t="s">
-        <v>1427</v>
+      <c r="Q168" s="60" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q169" s="61" t="s">
-        <v>1428</v>
+      <c r="Q169" s="60" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q170" s="61" t="s">
-        <v>1429</v>
+      <c r="Q170" s="60" t="s">
+        <v>1467</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q171" s="61" t="s">
-        <v>1430</v>
+      <c r="Q171" s="60" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q172" s="61" t="s">
-        <v>1431</v>
+      <c r="Q172" s="60" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q173" s="61" t="s">
-        <v>1432</v>
+      <c r="Q173" s="60" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q174" s="61" t="s">
-        <v>1433</v>
+      <c r="Q174" s="60" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q175" s="61" t="s">
-        <v>1434</v>
+      <c r="Q175" s="60" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q176" s="61" t="s">
-        <v>1435</v>
+      <c r="Q176" s="60" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q177" s="61" t="s">
-        <v>1436</v>
+      <c r="Q177" s="60" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q178" s="61" t="s">
-        <v>1437</v>
+      <c r="Q178" s="60" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q179" s="61" t="s">
-        <v>1438</v>
+      <c r="Q179" s="60" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q180" s="61" t="s">
-        <v>1439</v>
+      <c r="Q180" s="60" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q181" s="61" t="s">
-        <v>1440</v>
+      <c r="Q181" s="60" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q182" s="61" t="s">
-        <v>1441</v>
+      <c r="Q182" s="60" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q183" s="61" t="s">
-        <v>1442</v>
+      <c r="Q183" s="60" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q184" s="61" t="s">
-        <v>1443</v>
+      <c r="Q184" s="60" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q185" s="61" t="s">
-        <v>1444</v>
+      <c r="Q185" s="60" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q186" s="61" t="s">
-        <v>1445</v>
+      <c r="Q186" s="60" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q187" s="61" t="s">
-        <v>1446</v>
+      <c r="Q187" s="60" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q188" s="61" t="s">
-        <v>1447</v>
+      <c r="Q188" s="60" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q189" s="61" t="s">
-        <v>1448</v>
+      <c r="Q189" s="60" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q190" s="61" t="s">
-        <v>1449</v>
+      <c r="Q190" s="60" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q191" s="61" t="s">
-        <v>1450</v>
+      <c r="Q191" s="60" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q192" s="61" t="s">
-        <v>1451</v>
+      <c r="Q192" s="60" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q193" s="61" t="s">
-        <v>1452</v>
+      <c r="Q193" s="60" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q194" s="61" t="s">
-        <v>1453</v>
+      <c r="Q194" s="60" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q195" s="61" t="s">
-        <v>1454</v>
+      <c r="Q195" s="60" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q196" s="61" t="s">
-        <v>1455</v>
+      <c r="Q196" s="60" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q197" s="61" t="s">
-        <v>1456</v>
+      <c r="Q197" s="60" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q198" s="61" t="s">
-        <v>1457</v>
+      <c r="Q198" s="60" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q199" s="61" t="s">
-        <v>1458</v>
+      <c r="Q199" s="60" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q200" s="61" t="s">
-        <v>1459</v>
+      <c r="Q200" s="60" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q201" s="61" t="s">
-        <v>1460</v>
+      <c r="Q201" s="60" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q202" s="61" t="s">
-        <v>1461</v>
+      <c r="Q202" s="60" t="s">
+        <v>1499</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q203" s="61" t="s">
-        <v>1462</v>
+      <c r="Q203" s="60" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q204" s="61" t="s">
-        <v>1463</v>
+      <c r="Q204" s="60" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q205" s="61" t="s">
-        <v>1464</v>
+      <c r="Q205" s="60" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q206" s="61" t="s">
-        <v>1465</v>
+      <c r="Q206" s="60" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q207" s="61" t="s">
-        <v>1466</v>
+      <c r="Q207" s="60" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q208" s="61" t="s">
-        <v>1467</v>
+      <c r="Q208" s="60" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q209" s="61" t="s">
-        <v>1468</v>
+      <c r="Q209" s="60" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q210" s="61" t="s">
-        <v>1469</v>
+      <c r="Q210" s="60" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q211" s="61" t="s">
-        <v>1470</v>
+      <c r="Q211" s="60" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q212" s="61" t="s">
-        <v>1471</v>
+      <c r="Q212" s="60" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q213" s="61" t="s">
-        <v>1472</v>
+      <c r="Q213" s="60" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q214" s="61" t="s">
-        <v>1473</v>
+      <c r="Q214" s="60" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q215" s="61" t="s">
-        <v>1474</v>
+      <c r="Q215" s="60" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q216" s="61" t="s">
-        <v>1475</v>
+      <c r="Q216" s="60" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q217" s="61" t="s">
-        <v>1476</v>
+      <c r="Q217" s="60" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q218" s="61" t="s">
-        <v>1477</v>
+      <c r="Q218" s="60" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q219" s="61" t="s">
-        <v>1478</v>
+      <c r="Q219" s="60" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q220" s="61" t="s">
-        <v>1479</v>
+      <c r="Q220" s="60" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q221" s="61" t="s">
-        <v>1480</v>
+      <c r="Q221" s="60" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q222" s="61" t="s">
-        <v>1481</v>
+      <c r="Q222" s="60" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q223" s="61" t="s">
-        <v>1482</v>
+      <c r="Q223" s="60" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q224" s="61" t="s">
-        <v>1483</v>
+      <c r="Q224" s="60" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q225" s="61" t="s">
-        <v>1484</v>
+      <c r="Q225" s="60" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q226" s="61" t="s">
-        <v>1485</v>
+      <c r="Q226" s="60" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q227" s="61" t="s">
-        <v>1486</v>
+      <c r="Q227" s="60" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q228" s="61" t="s">
-        <v>1487</v>
+      <c r="Q228" s="60" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q229" s="61" t="s">
-        <v>1488</v>
+      <c r="Q229" s="60" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q230" s="61" t="s">
-        <v>1489</v>
+      <c r="Q230" s="60" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q231" s="61" t="s">
-        <v>1490</v>
+      <c r="Q231" s="60" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q232" s="61" t="s">
-        <v>1491</v>
+      <c r="Q232" s="60" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q233" s="61" t="s">
-        <v>1492</v>
+      <c r="Q233" s="60" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q234" s="61" t="s">
-        <v>1493</v>
+      <c r="Q234" s="60" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q235" s="61" t="s">
-        <v>1494</v>
+      <c r="Q235" s="60" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q236" s="61" t="s">
-        <v>1495</v>
+      <c r="Q236" s="60" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q237" s="61" t="s">
-        <v>1496</v>
+      <c r="Q237" s="60" t="s">
+        <v>1534</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q238" s="61" t="s">
-        <v>1497</v>
+      <c r="Q238" s="60" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q239" s="61" t="s">
-        <v>1498</v>
+      <c r="Q239" s="60" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q240" s="61" t="s">
-        <v>1499</v>
+      <c r="Q240" s="60" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q241" s="61" t="s">
-        <v>1500</v>
+      <c r="Q241" s="60" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q242" s="61" t="s">
-        <v>1501</v>
+      <c r="Q242" s="60" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q243" s="61" t="s">
-        <v>1502</v>
+      <c r="Q243" s="60" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q244" s="61" t="s">
-        <v>1503</v>
+      <c r="Q244" s="60" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q245" s="61" t="s">
-        <v>1504</v>
+      <c r="Q245" s="60" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q246" s="61" t="s">
-        <v>1505</v>
+      <c r="Q246" s="60" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q247" s="61" t="s">
-        <v>1506</v>
+      <c r="Q247" s="60" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q248" s="61" t="s">
-        <v>1507</v>
+      <c r="Q248" s="60" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q249" s="61" t="s">
-        <v>1508</v>
+      <c r="Q249" s="60" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q250" s="61" t="s">
-        <v>1509</v>
+      <c r="Q250" s="60" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q251" s="61" t="s">
-        <v>1510</v>
+      <c r="Q251" s="60" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q252" s="61" t="s">
-        <v>1511</v>
+      <c r="Q252" s="60" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q253" s="61" t="s">
-        <v>1512</v>
+      <c r="Q253" s="60" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q254" s="61" t="s">
-        <v>1513</v>
+      <c r="Q254" s="60" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q255" s="61" t="s">
-        <v>1514</v>
+      <c r="Q255" s="60" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q256" s="61" t="s">
-        <v>1515</v>
+      <c r="Q256" s="60" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q257" s="61" t="s">
-        <v>1516</v>
+      <c r="Q257" s="60" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q258" s="61" t="s">
-        <v>1517</v>
+      <c r="Q258" s="60" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q259" s="61" t="s">
-        <v>1518</v>
+      <c r="Q259" s="60" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q260" s="61" t="s">
-        <v>1519</v>
+      <c r="Q260" s="60" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q261" s="61" t="s">
-        <v>1520</v>
+      <c r="Q261" s="60" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q262" s="61" t="s">
-        <v>1521</v>
+      <c r="Q262" s="60" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q263" s="61" t="s">
-        <v>1522</v>
+      <c r="Q263" s="60" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q264" s="61" t="s">
-        <v>1523</v>
+      <c r="Q264" s="60" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q265" s="61" t="s">
-        <v>1524</v>
+      <c r="Q265" s="60" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q266" s="61" t="s">
-        <v>1525</v>
+      <c r="Q266" s="60" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q267" s="61" t="s">
-        <v>1526</v>
+      <c r="Q267" s="60" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q268" s="61" t="s">
-        <v>1527</v>
+      <c r="Q268" s="60" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q269" s="61" t="s">
-        <v>1528</v>
+      <c r="Q269" s="60" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q270" s="61" t="s">
-        <v>1529</v>
+      <c r="Q270" s="60" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q271" s="61" t="s">
-        <v>1530</v>
+      <c r="Q271" s="60" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q272" s="61" t="s">
-        <v>1531</v>
+      <c r="Q272" s="60" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q273" s="61" t="s">
-        <v>1532</v>
+      <c r="Q273" s="60" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q274" s="61" t="s">
-        <v>1533</v>
+      <c r="Q274" s="60" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q275" s="61" t="s">
-        <v>1534</v>
+      <c r="Q275" s="60" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q276" s="61" t="s">
-        <v>1535</v>
+      <c r="Q276" s="60" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q277" s="61" t="s">
-        <v>1536</v>
+      <c r="Q277" s="60" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q278" s="61" t="s">
-        <v>1537</v>
+      <c r="Q278" s="60" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q279" s="61" t="s">
-        <v>1538</v>
+      <c r="Q279" s="60" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q280" s="61" t="s">
-        <v>1539</v>
+      <c r="Q280" s="60" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q281" s="61" t="s">
-        <v>1540</v>
+      <c r="Q281" s="60" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q282" s="61" t="s">
-        <v>1541</v>
+      <c r="Q282" s="60" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q283" s="61" t="s">
-        <v>1542</v>
+      <c r="Q283" s="60" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q284" s="61" t="s">
-        <v>1543</v>
+      <c r="Q284" s="60" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q285" s="61" t="s">
-        <v>1544</v>
+      <c r="Q285" s="60" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q286" s="61" t="s">
-        <v>1545</v>
+      <c r="Q286" s="60" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q287" s="61" t="s">
-        <v>1546</v>
+      <c r="Q287" s="60" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q288" s="61" t="s">
-        <v>1547</v>
+      <c r="Q288" s="60" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q289" s="61" t="s">
-        <v>1548</v>
+      <c r="Q289" s="60" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q290" s="61" t="s">
-        <v>1549</v>
+      <c r="Q290" s="60" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q291" s="61" t="s">
-        <v>1550</v>
+      <c r="Q291" s="60" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q292" s="61" t="s">
-        <v>1551</v>
+      <c r="Q292" s="60" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q293" s="61" t="s">
-        <v>1552</v>
+      <c r="Q293" s="60" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q294" s="61" t="s">
-        <v>1553</v>
+      <c r="Q294" s="60" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q295" s="61" t="s">
-        <v>1554</v>
+      <c r="Q295" s="60" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q296" s="61" t="s">
-        <v>1555</v>
+      <c r="Q296" s="60" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q297" s="61" t="s">
-        <v>1556</v>
+      <c r="Q297" s="60" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q298" s="61" t="s">
-        <v>1557</v>
+      <c r="Q298" s="60" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q299" s="61" t="s">
-        <v>1558</v>
+      <c r="Q299" s="60" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q300" s="61" t="s">
-        <v>1559</v>
+      <c r="Q300" s="60" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q301" s="61" t="s">
-        <v>1560</v>
+      <c r="Q301" s="60" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q302" s="61" t="s">
-        <v>1561</v>
+      <c r="Q302" s="60" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q303" s="61" t="s">
-        <v>1562</v>
+      <c r="Q303" s="60" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q304" s="61" t="s">
-        <v>1563</v>
+      <c r="Q304" s="60" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q305" s="61" t="s">
-        <v>1564</v>
+      <c r="Q305" s="60" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q306" s="61" t="s">
-        <v>1565</v>
+      <c r="Q306" s="60" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q307" s="61" t="s">
-        <v>1566</v>
+      <c r="Q307" s="60" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q308" s="61" t="s">
-        <v>1567</v>
+      <c r="Q308" s="60" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q309" s="61" t="s">
-        <v>1568</v>
+      <c r="Q309" s="60" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q310" s="61" t="s">
-        <v>1569</v>
+      <c r="Q310" s="60" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q311" s="61" t="s">
-        <v>1570</v>
+      <c r="Q311" s="60" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q312" s="61" t="s">
-        <v>1571</v>
+      <c r="Q312" s="60" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q313" s="61" t="s">
-        <v>1572</v>
+      <c r="Q313" s="60" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q314" s="61" t="s">
-        <v>1573</v>
+      <c r="Q314" s="60" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q315" s="61" t="s">
-        <v>1574</v>
+      <c r="Q315" s="60" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q316" s="61" t="s">
-        <v>1575</v>
+      <c r="Q316" s="60" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q317" s="61" t="s">
-        <v>1576</v>
+      <c r="Q317" s="60" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q318" s="61" t="s">
-        <v>1577</v>
+      <c r="Q318" s="60" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q319" s="61" t="s">
-        <v>1578</v>
+      <c r="Q319" s="60" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q320" s="61" t="s">
-        <v>1579</v>
+      <c r="Q320" s="60" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q321" s="61" t="s">
-        <v>1580</v>
+      <c r="Q321" s="60" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q322" s="61" t="s">
-        <v>1581</v>
+      <c r="Q322" s="60" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q323" s="61" t="s">
-        <v>1582</v>
+      <c r="Q323" s="60" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q324" s="61" t="s">
-        <v>1583</v>
+      <c r="Q324" s="60" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q325" s="61" t="s">
-        <v>1584</v>
+      <c r="Q325" s="60" t="s">
+        <v>1622</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q326" s="61" t="s">
-        <v>1585</v>
+      <c r="Q326" s="60" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q327" s="61" t="s">
-        <v>1586</v>
+      <c r="Q327" s="60" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q328" s="61" t="s">
-        <v>1587</v>
+      <c r="Q328" s="60" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q329" s="61" t="s">
-        <v>1588</v>
+      <c r="Q329" s="60" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q330" s="61" t="s">
-        <v>1589</v>
+      <c r="Q330" s="60" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q331" s="61" t="s">
-        <v>1590</v>
+      <c r="Q331" s="60" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q332" s="61" t="s">
-        <v>1591</v>
+      <c r="Q332" s="60" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q333" s="61" t="s">
-        <v>1592</v>
+      <c r="Q333" s="60" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q334" s="61" t="s">
-        <v>1593</v>
+      <c r="Q334" s="60" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q335" s="61" t="s">
-        <v>1594</v>
+      <c r="Q335" s="60" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q336" s="61" t="s">
-        <v>1595</v>
+      <c r="Q336" s="60" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q337" s="61" t="s">
-        <v>1596</v>
+      <c r="Q337" s="60" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q338" s="61" t="s">
-        <v>1597</v>
+      <c r="Q338" s="60" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q339" s="61" t="s">
-        <v>1598</v>
+      <c r="Q339" s="60" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q340" s="61" t="s">
-        <v>1599</v>
+      <c r="Q340" s="60" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q341" s="61" t="s">
-        <v>1600</v>
+      <c r="Q341" s="60" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q342" s="61" t="s">
-        <v>1601</v>
+      <c r="Q342" s="60" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q343" s="61" t="s">
-        <v>1602</v>
+      <c r="Q343" s="60" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q344" s="61" t="s">
-        <v>1603</v>
+      <c r="Q344" s="60" t="s">
+        <v>1641</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q345" s="61" t="s">
-        <v>1604</v>
+      <c r="Q345" s="60" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q346" s="61" t="s">
-        <v>1605</v>
+      <c r="Q346" s="60" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q347" s="61" t="s">
-        <v>1606</v>
+      <c r="Q347" s="60" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q348" s="61" t="s">
-        <v>1607</v>
+      <c r="Q348" s="60" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q349" s="61" t="s">
-        <v>1608</v>
+      <c r="Q349" s="60" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q350" s="61" t="s">
-        <v>1609</v>
+      <c r="Q350" s="60" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q351" s="61" t="s">
-        <v>1610</v>
+      <c r="Q351" s="60" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q352" s="61" t="s">
-        <v>1611</v>
+      <c r="Q352" s="60" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q353" s="61" t="s">
-        <v>1612</v>
+      <c r="Q353" s="60" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q354" s="61" t="s">
-        <v>1613</v>
+      <c r="Q354" s="60" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q355" s="61" t="s">
-        <v>1614</v>
+      <c r="Q355" s="60" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q356" s="61" t="s">
-        <v>1615</v>
+      <c r="Q356" s="60" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q357" s="61" t="s">
-        <v>1616</v>
+      <c r="Q357" s="60" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q358" s="61" t="s">
-        <v>1617</v>
+      <c r="Q358" s="60" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q359" s="61" t="s">
-        <v>1618</v>
+      <c r="Q359" s="60" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q360" s="61" t="s">
-        <v>1619</v>
+      <c r="Q360" s="60" t="s">
+        <v>1657</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q361" s="61" t="s">
-        <v>1620</v>
+      <c r="Q361" s="60" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q362" s="61" t="s">
-        <v>1621</v>
+      <c r="Q362" s="60" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q363" s="61" t="s">
-        <v>1622</v>
+      <c r="Q363" s="60" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q364" s="61" t="s">
-        <v>1623</v>
+      <c r="Q364" s="60" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q365" s="61" t="s">
-        <v>1624</v>
+      <c r="Q365" s="60" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q366" s="61" t="s">
-        <v>1625</v>
+      <c r="Q366" s="60" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q367" s="61" t="s">
-        <v>1626</v>
+      <c r="Q367" s="60" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q368" s="61" t="s">
-        <v>1627</v>
+      <c r="Q368" s="60" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q369" s="61" t="s">
-        <v>1628</v>
+      <c r="Q369" s="60" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q370" s="61" t="s">
-        <v>1629</v>
+      <c r="Q370" s="60" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q371" s="61" t="s">
-        <v>1630</v>
+      <c r="Q371" s="60" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q372" s="61" t="s">
-        <v>1631</v>
+      <c r="Q372" s="60" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q373" s="61" t="s">
-        <v>1632</v>
+      <c r="Q373" s="60" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q374" s="61" t="s">
-        <v>1633</v>
+      <c r="Q374" s="60" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q375" s="61" t="s">
-        <v>1634</v>
+      <c r="Q375" s="60" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q376" s="61" t="s">
-        <v>1635</v>
+      <c r="Q376" s="60" t="s">
+        <v>1673</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q377" s="61" t="s">
-        <v>1636</v>
+      <c r="Q377" s="60" t="s">
+        <v>1674</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q378" s="61" t="s">
-        <v>1637</v>
+      <c r="Q378" s="60" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q379" s="61" t="s">
-        <v>1638</v>
+      <c r="Q379" s="60" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q380" s="61" t="s">
-        <v>1639</v>
+      <c r="Q380" s="60" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q381" s="61" t="s">
-        <v>1640</v>
+      <c r="Q381" s="60" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q382" s="61" t="s">
-        <v>1641</v>
+      <c r="Q382" s="60" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q383" s="61" t="s">
-        <v>1642</v>
+      <c r="Q383" s="60" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q384" s="61" t="s">
-        <v>1643</v>
+      <c r="Q384" s="60" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q385" s="61" t="s">
-        <v>1644</v>
+      <c r="Q385" s="60" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q386" s="61" t="s">
-        <v>1645</v>
+      <c r="Q386" s="60" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q387" s="61" t="s">
-        <v>1646</v>
+      <c r="Q387" s="60" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q388" s="61" t="s">
-        <v>1647</v>
+      <c r="Q388" s="60" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q389" s="61" t="s">
-        <v>1648</v>
+      <c r="Q389" s="60" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q390" s="61" t="s">
-        <v>1649</v>
+      <c r="Q390" s="60" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q391" s="61" t="s">
-        <v>1650</v>
+      <c r="Q391" s="60" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q392" s="61" t="s">
-        <v>1651</v>
+      <c r="Q392" s="60" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q393" s="61" t="s">
-        <v>1652</v>
+      <c r="Q393" s="60" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q394" s="61" t="s">
-        <v>1653</v>
+      <c r="Q394" s="60" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q395" s="61" t="s">
-        <v>1654</v>
+      <c r="Q395" s="60" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q396" s="61" t="s">
-        <v>1655</v>
+      <c r="Q396" s="60" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q397" s="61" t="s">
-        <v>1656</v>
+      <c r="Q397" s="60" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q398" s="61" t="s">
-        <v>1657</v>
+      <c r="Q398" s="60" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q399" s="61" t="s">
-        <v>1658</v>
+      <c r="Q399" s="60" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q400" s="61" t="s">
-        <v>1659</v>
+      <c r="Q400" s="60" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q401" s="61" t="s">
-        <v>1660</v>
+      <c r="Q401" s="60" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q402" s="61" t="s">
-        <v>1661</v>
+      <c r="Q402" s="60" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q403" s="61" t="s">
-        <v>1662</v>
+      <c r="Q403" s="60" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q404" s="61" t="s">
-        <v>1663</v>
+      <c r="Q404" s="60" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q405" s="61" t="s">
-        <v>1664</v>
+      <c r="Q405" s="60" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q406" s="61" t="s">
-        <v>1665</v>
+      <c r="Q406" s="60" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q407" s="61" t="s">
-        <v>1666</v>
+      <c r="Q407" s="60" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q408" s="61" t="s">
-        <v>1667</v>
+      <c r="Q408" s="60" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q409" s="61" t="s">
-        <v>1668</v>
+      <c r="Q409" s="60" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q410" s="61" t="s">
-        <v>1669</v>
+      <c r="Q410" s="60" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q411" s="61" t="s">
-        <v>1670</v>
+      <c r="Q411" s="60" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q412" s="61" t="s">
-        <v>1671</v>
+      <c r="Q412" s="60" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q413" s="61" t="s">
-        <v>1672</v>
+      <c r="Q413" s="60" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q414" s="61" t="s">
-        <v>1673</v>
+      <c r="Q414" s="60" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q415" s="61" t="s">
-        <v>1674</v>
+      <c r="Q415" s="60" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q416" s="61" t="s">
-        <v>1675</v>
+      <c r="Q416" s="60" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q417" s="61" t="s">
-        <v>1676</v>
+      <c r="Q417" s="60" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q418" s="61" t="s">
-        <v>1677</v>
+      <c r="Q418" s="60" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q419" s="61" t="s">
-        <v>1678</v>
+      <c r="Q419" s="60" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q420" s="61" t="s">
-        <v>1679</v>
+      <c r="Q420" s="60" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q421" s="61" t="s">
-        <v>1680</v>
+      <c r="Q421" s="60" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q422" s="61" t="s">
-        <v>1681</v>
+      <c r="Q422" s="60" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q423" s="61" t="s">
-        <v>1682</v>
+      <c r="Q423" s="60" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q424" s="61" t="s">
-        <v>1683</v>
+      <c r="Q424" s="60" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q425" s="61" t="s">
-        <v>1684</v>
+      <c r="Q425" s="60" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q426" s="61" t="s">
-        <v>1685</v>
+      <c r="Q426" s="60" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q427" s="61" t="s">
-        <v>1686</v>
+      <c r="Q427" s="60" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q428" s="61" t="s">
-        <v>1687</v>
+      <c r="Q428" s="60" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q429" s="61" t="s">
-        <v>1688</v>
+      <c r="Q429" s="60" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q430" s="61" t="s">
-        <v>1689</v>
+      <c r="Q430" s="60" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q431" s="61" t="s">
-        <v>1690</v>
+      <c r="Q431" s="60" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q432" s="61" t="s">
-        <v>1691</v>
+      <c r="Q432" s="60" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q433" s="61" t="s">
-        <v>1692</v>
+      <c r="Q433" s="60" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q434" s="61" t="s">
-        <v>1693</v>
+      <c r="Q434" s="60" t="s">
+        <v>1731</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q435" s="61" t="s">
-        <v>1694</v>
+      <c r="Q435" s="60" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q436" s="61" t="s">
-        <v>1695</v>
+      <c r="Q436" s="60" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q437" s="61" t="s">
-        <v>1696</v>
+      <c r="Q437" s="60" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q438" s="61" t="s">
-        <v>1697</v>
+      <c r="Q438" s="60" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q439" s="61" t="s">
-        <v>1698</v>
+      <c r="Q439" s="60" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q440" s="61" t="s">
-        <v>1699</v>
+      <c r="Q440" s="60" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q441" s="61" t="s">
-        <v>1700</v>
+      <c r="Q441" s="60" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q442" s="61" t="s">
-        <v>1701</v>
+      <c r="Q442" s="60" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q443" s="61" t="s">
-        <v>1702</v>
+      <c r="Q443" s="60" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q444" s="61" t="s">
-        <v>1703</v>
+      <c r="Q444" s="60" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q445" s="61" t="s">
-        <v>1704</v>
+      <c r="Q445" s="60" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q446" s="61" t="s">
-        <v>1705</v>
+      <c r="Q446" s="60" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q447" s="61" t="s">
-        <v>1706</v>
+      <c r="Q447" s="60" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q448" s="61" t="s">
-        <v>1707</v>
+      <c r="Q448" s="60" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q449" s="61" t="s">
-        <v>1708</v>
+      <c r="Q449" s="60" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q450" s="61" t="s">
-        <v>1709</v>
+      <c r="Q450" s="60" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q451" s="61" t="s">
-        <v>1710</v>
+      <c r="Q451" s="60" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q452" s="61" t="s">
-        <v>1711</v>
+      <c r="Q452" s="60" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q453" s="61" t="s">
-        <v>1712</v>
+      <c r="Q453" s="60" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q454" s="61" t="s">
-        <v>1713</v>
+      <c r="Q454" s="60" t="s">
+        <v>1751</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q455" s="61" t="s">
-        <v>1714</v>
+      <c r="Q455" s="60" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q456" s="61" t="s">
-        <v>1715</v>
+      <c r="Q456" s="60" t="s">
+        <v>1753</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q457" s="61" t="s">
-        <v>1716</v>
+      <c r="Q457" s="60" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q458" s="61" t="s">
-        <v>1717</v>
+      <c r="Q458" s="60" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q459" s="61" t="s">
-        <v>1718</v>
+      <c r="Q459" s="60" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q460" s="61" t="s">
-        <v>1719</v>
+      <c r="Q460" s="60" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q461" s="61" t="s">
-        <v>1720</v>
+      <c r="Q461" s="60" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q462" s="61" t="s">
-        <v>1721</v>
+      <c r="Q462" s="60" t="s">
+        <v>1759</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q463" s="61" t="s">
-        <v>1722</v>
+      <c r="Q463" s="60" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q464" s="61" t="s">
-        <v>1723</v>
+      <c r="Q464" s="60" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q465" s="61" t="s">
-        <v>1724</v>
+      <c r="Q465" s="60" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q466" s="61" t="s">
-        <v>1725</v>
+      <c r="Q466" s="60" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q467" s="61" t="s">
-        <v>1726</v>
+      <c r="Q467" s="60" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q468" s="61" t="s">
-        <v>1727</v>
+      <c r="Q468" s="60" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q469" s="61" t="s">
-        <v>1728</v>
+      <c r="Q469" s="60" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q470" s="61" t="s">
-        <v>1729</v>
+      <c r="Q470" s="60" t="s">
+        <v>1767</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q471" s="61" t="s">
-        <v>1730</v>
+      <c r="Q471" s="60" t="s">
+        <v>1768</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q472" s="61" t="s">
-        <v>1731</v>
+      <c r="Q472" s="60" t="s">
+        <v>1769</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q473" s="61" t="s">
-        <v>1732</v>
+      <c r="Q473" s="60" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q474" s="61" t="s">
-        <v>1733</v>
+      <c r="Q474" s="60" t="s">
+        <v>1771</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q475" s="61" t="s">
-        <v>1734</v>
+      <c r="Q475" s="60" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q476" s="61" t="s">
-        <v>1735</v>
+      <c r="Q476" s="60" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q477" s="61" t="s">
-        <v>1736</v>
+      <c r="Q477" s="60" t="s">
+        <v>1774</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q478" s="61" t="s">
-        <v>1737</v>
+      <c r="Q478" s="60" t="s">
+        <v>1775</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q479" s="61" t="s">
-        <v>1738</v>
+      <c r="Q479" s="60" t="s">
+        <v>1776</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q480" s="61" t="s">
-        <v>1739</v>
+      <c r="Q480" s="60" t="s">
+        <v>1777</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q481" s="61" t="s">
-        <v>1740</v>
+      <c r="Q481" s="60" t="s">
+        <v>1778</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q482" s="61" t="s">
-        <v>1741</v>
+      <c r="Q482" s="60" t="s">
+        <v>1779</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q483" s="61" t="s">
-        <v>1742</v>
+      <c r="Q483" s="60" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q484" s="61" t="s">
-        <v>1743</v>
+      <c r="Q484" s="60" t="s">
+        <v>1781</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q485" s="61" t="s">
-        <v>1744</v>
+      <c r="Q485" s="60" t="s">
+        <v>1782</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q486" s="61" t="s">
-        <v>1745</v>
+      <c r="Q486" s="60" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q487" s="61" t="s">
-        <v>1746</v>
+      <c r="Q487" s="60" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q488" s="61" t="s">
-        <v>1747</v>
+      <c r="Q488" s="60" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q489" s="61" t="s">
-        <v>1748</v>
+      <c r="Q489" s="60" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q490" s="61" t="s">
-        <v>1749</v>
+      <c r="Q490" s="60" t="s">
+        <v>1787</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q491" s="61" t="s">
-        <v>1750</v>
+      <c r="Q491" s="60" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q492" s="61" t="s">
-        <v>1751</v>
+      <c r="Q492" s="60" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q493" s="61" t="s">
-        <v>1752</v>
+      <c r="Q493" s="60" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q494" s="61" t="s">
-        <v>1753</v>
+      <c r="Q494" s="60" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q495" s="61" t="s">
-        <v>1754</v>
+      <c r="Q495" s="60" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q496" s="61" t="s">
-        <v>1755</v>
+      <c r="Q496" s="60" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q497" s="61" t="s">
-        <v>1756</v>
+      <c r="Q497" s="60" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q498" s="61" t="s">
-        <v>1757</v>
+      <c r="Q498" s="60" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q499" s="61" t="s">
-        <v>1758</v>
+      <c r="Q499" s="60" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q500" s="61" t="s">
-        <v>1759</v>
+      <c r="Q500" s="60" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q501" s="61" t="s">
-        <v>1760</v>
+      <c r="Q501" s="60" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q502" s="61" t="s">
-        <v>1761</v>
+      <c r="Q502" s="60" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q503" s="61" t="s">
-        <v>1762</v>
+      <c r="Q503" s="60" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q504" s="61" t="s">
-        <v>1763</v>
+      <c r="Q504" s="60" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q505" s="61" t="s">
-        <v>1764</v>
+      <c r="Q505" s="60" t="s">
+        <v>1802</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q506" s="61" t="s">
-        <v>1765</v>
+      <c r="Q506" s="60" t="s">
+        <v>1803</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q507" s="61" t="s">
-        <v>1766</v>
+      <c r="Q507" s="60" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q508" s="61" t="s">
-        <v>1767</v>
+      <c r="Q508" s="60" t="s">
+        <v>1805</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q509" s="61" t="s">
-        <v>1768</v>
+      <c r="Q509" s="60" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q510" s="61" t="s">
-        <v>1769</v>
+      <c r="Q510" s="60" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q511" s="61" t="s">
-        <v>1770</v>
+      <c r="Q511" s="60" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q512" s="61" t="s">
-        <v>1771</v>
+      <c r="Q512" s="60" t="s">
+        <v>1809</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q513" s="61" t="s">
-        <v>1772</v>
+      <c r="Q513" s="60" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q514" s="61" t="s">
-        <v>1773</v>
+      <c r="Q514" s="60" t="s">
+        <v>1811</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q515" s="61" t="s">
-        <v>1774</v>
+      <c r="Q515" s="60" t="s">
+        <v>1812</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q516" s="61" t="s">
-        <v>1775</v>
+      <c r="Q516" s="60" t="s">
+        <v>1813</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q517" s="61" t="s">
-        <v>1776</v>
+      <c r="Q517" s="60" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q518" s="61" t="s">
-        <v>1777</v>
+      <c r="Q518" s="60" t="s">
+        <v>1815</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q519" s="61" t="s">
-        <v>1778</v>
+      <c r="Q519" s="60" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q520" s="61" t="s">
-        <v>1779</v>
+      <c r="Q520" s="60" t="s">
+        <v>1817</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q521" s="61" t="s">
-        <v>1780</v>
+      <c r="Q521" s="60" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q522" s="61" t="s">
-        <v>1781</v>
+      <c r="Q522" s="60" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q523" s="61" t="s">
-        <v>1782</v>
+      <c r="Q523" s="60" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q524" s="61" t="s">
-        <v>1783</v>
+      <c r="Q524" s="60" t="s">
+        <v>1821</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q525" s="61" t="s">
-        <v>1784</v>
+      <c r="Q525" s="60" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q526" s="61" t="s">
-        <v>1785</v>
+      <c r="Q526" s="60" t="s">
+        <v>1823</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q527" s="61" t="s">
-        <v>1786</v>
+      <c r="Q527" s="60" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q528" s="61" t="s">
-        <v>1787</v>
+      <c r="Q528" s="60" t="s">
+        <v>1825</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q529" s="61" t="s">
-        <v>1788</v>
+      <c r="Q529" s="60" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q530" s="61" t="s">
-        <v>1789</v>
+      <c r="Q530" s="60" t="s">
+        <v>1827</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q531" s="61" t="s">
-        <v>1790</v>
+      <c r="Q531" s="60" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q532" s="61" t="s">
-        <v>1791</v>
+      <c r="Q532" s="60" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q533" s="61" t="s">
-        <v>1792</v>
+      <c r="Q533" s="60" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q534" s="61" t="s">
-        <v>1793</v>
+      <c r="Q534" s="60" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q535" s="61" t="s">
-        <v>1794</v>
+      <c r="Q535" s="60" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q536" s="61" t="s">
-        <v>1795</v>
+      <c r="Q536" s="60" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q537" s="61" t="s">
-        <v>1796</v>
+      <c r="Q537" s="60" t="s">
+        <v>1834</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q538" s="61" t="s">
-        <v>1797</v>
+      <c r="Q538" s="60" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q539" s="61" t="s">
-        <v>1798</v>
+      <c r="Q539" s="60" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q540" s="61" t="s">
-        <v>1799</v>
+      <c r="Q540" s="60" t="s">
+        <v>1837</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q541" s="61" t="s">
-        <v>1800</v>
+      <c r="Q541" s="60" t="s">
+        <v>1838</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q542" s="61" t="s">
-        <v>1801</v>
+      <c r="Q542" s="60" t="s">
+        <v>1839</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q543" s="61" t="s">
-        <v>1802</v>
+      <c r="Q543" s="60" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q544" s="61" t="s">
-        <v>1803</v>
+      <c r="Q544" s="60" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q545" s="61" t="s">
-        <v>1804</v>
+      <c r="Q545" s="60" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q546" s="61" t="s">
-        <v>1805</v>
+      <c r="Q546" s="60" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q547" s="61" t="s">
-        <v>1806</v>
+      <c r="Q547" s="60" t="s">
+        <v>1844</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q548" s="61" t="s">
-        <v>1807</v>
+      <c r="Q548" s="60" t="s">
+        <v>1845</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q549" s="61" t="s">
-        <v>1808</v>
+      <c r="Q549" s="60" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q550" s="61" t="s">
-        <v>1809</v>
+      <c r="Q550" s="60" t="s">
+        <v>1847</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q551" s="61" t="s">
-        <v>1810</v>
+      <c r="Q551" s="60" t="s">
+        <v>1848</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q552" s="61" t="s">
-        <v>1811</v>
+      <c r="Q552" s="60" t="s">
+        <v>1849</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q553" s="61" t="s">
-        <v>1812</v>
+      <c r="Q553" s="60" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q554" s="61" t="s">
-        <v>1813</v>
+      <c r="Q554" s="60" t="s">
+        <v>1851</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q555" s="61" t="s">
-        <v>1814</v>
+      <c r="Q555" s="60" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q556" s="61" t="s">
-        <v>1815</v>
+      <c r="Q556" s="60" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q557" s="61" t="s">
-        <v>1816</v>
+      <c r="Q557" s="60" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q558" s="61" t="s">
-        <v>1817</v>
+      <c r="Q558" s="60" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q559" s="61" t="s">
-        <v>1818</v>
+      <c r="Q559" s="60" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q560" s="61" t="s">
-        <v>1819</v>
+      <c r="Q560" s="60" t="s">
+        <v>1857</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q561" s="61" t="s">
-        <v>1820</v>
+      <c r="Q561" s="60" t="s">
+        <v>1858</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q562" s="61" t="s">
-        <v>1821</v>
+      <c r="Q562" s="60" t="s">
+        <v>1859</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q563" s="61" t="s">
-        <v>1822</v>
+      <c r="Q563" s="60" t="s">
+        <v>1860</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q564" s="61" t="s">
-        <v>1823</v>
+      <c r="Q564" s="60" t="s">
+        <v>1861</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q565" s="61" t="s">
-        <v>1824</v>
+      <c r="Q565" s="60" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q566" s="61" t="s">
-        <v>1825</v>
+      <c r="Q566" s="60" t="s">
+        <v>1863</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q567" s="61" t="s">
-        <v>1826</v>
+      <c r="Q567" s="60" t="s">
+        <v>1864</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q568" s="61" t="s">
-        <v>1827</v>
+      <c r="Q568" s="60" t="s">
+        <v>1865</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q569" s="61" t="s">
-        <v>1828</v>
+      <c r="Q569" s="60" t="s">
+        <v>1866</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q570" s="61" t="s">
-        <v>1829</v>
+      <c r="Q570" s="60" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q571" s="61" t="s">
-        <v>1830</v>
+      <c r="Q571" s="60" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q572" s="61" t="s">
-        <v>1831</v>
+      <c r="Q572" s="60" t="s">
+        <v>1869</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q573" s="61" t="s">
-        <v>1832</v>
+      <c r="Q573" s="60" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q574" s="61" t="s">
-        <v>1833</v>
+      <c r="Q574" s="60" t="s">
+        <v>1871</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q575" s="61" t="s">
-        <v>1834</v>
+      <c r="Q575" s="60" t="s">
+        <v>1872</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q576" s="61" t="s">
-        <v>1835</v>
+      <c r="Q576" s="60" t="s">
+        <v>1873</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q577" s="61" t="s">
-        <v>1836</v>
+      <c r="Q577" s="60" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q578" s="61" t="s">
-        <v>1837</v>
+      <c r="Q578" s="60" t="s">
+        <v>1875</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q579" s="61" t="s">
-        <v>1838</v>
+      <c r="Q579" s="60" t="s">
+        <v>1876</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q580" s="61" t="s">
-        <v>1839</v>
+      <c r="Q580" s="60" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q581" s="61" t="s">
-        <v>1840</v>
+      <c r="Q581" s="60" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q582" s="61" t="s">
-        <v>1841</v>
+      <c r="Q582" s="60" t="s">
+        <v>1879</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q583" s="61" t="s">
-        <v>1842</v>
+      <c r="Q583" s="60" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q584" s="61" t="s">
-        <v>1843</v>
+      <c r="Q584" s="60" t="s">
+        <v>1881</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q585" s="61" t="s">
-        <v>1844</v>
+      <c r="Q585" s="60" t="s">
+        <v>1882</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q586" s="61" t="s">
-        <v>1845</v>
+      <c r="Q586" s="60" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q587" s="61" t="s">
-        <v>1846</v>
+      <c r="Q587" s="60" t="s">
+        <v>1884</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q588" s="61" t="s">
-        <v>1847</v>
+      <c r="Q588" s="60" t="s">
+        <v>1885</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q589" s="61" t="s">
-        <v>1848</v>
+      <c r="Q589" s="60" t="s">
+        <v>1886</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q590" s="61" t="s">
-        <v>1849</v>
+      <c r="Q590" s="60" t="s">
+        <v>1887</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q591" s="61" t="s">
-        <v>1850</v>
+      <c r="Q591" s="60" t="s">
+        <v>1888</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q592" s="61" t="s">
-        <v>1851</v>
+      <c r="Q592" s="60" t="s">
+        <v>1889</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q593" s="61" t="s">
-        <v>1852</v>
+      <c r="Q593" s="60" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q594" s="61" t="s">
-        <v>1853</v>
+      <c r="Q594" s="60" t="s">
+        <v>1891</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q595" s="61" t="s">
-        <v>1854</v>
+      <c r="Q595" s="60" t="s">
+        <v>1892</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q596" s="61" t="s">
-        <v>1855</v>
+      <c r="Q596" s="60" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q597" s="61" t="s">
-        <v>1856</v>
+      <c r="Q597" s="60" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q598" s="61" t="s">
-        <v>1857</v>
+      <c r="Q598" s="60" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q599" s="61" t="s">
-        <v>1858</v>
+      <c r="Q599" s="60" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q600" s="61" t="s">
-        <v>1859</v>
+      <c r="Q600" s="60" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q601" s="61" t="s">
-        <v>1860</v>
+      <c r="Q601" s="60" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q602" s="61" t="s">
-        <v>1861</v>
+      <c r="Q602" s="60" t="s">
+        <v>1899</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q603" s="61" t="s">
-        <v>1862</v>
+      <c r="Q603" s="60" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q604" s="61" t="s">
-        <v>1863</v>
+      <c r="Q604" s="60" t="s">
+        <v>1901</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q605" s="61" t="s">
-        <v>1864</v>
+      <c r="Q605" s="60" t="s">
+        <v>1902</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q606" s="61" t="s">
-        <v>1865</v>
+      <c r="Q606" s="60" t="s">
+        <v>1903</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q607" s="61" t="s">
-        <v>1866</v>
+      <c r="Q607" s="60" t="s">
+        <v>1904</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q608" s="61" t="s">
-        <v>1867</v>
+      <c r="Q608" s="60" t="s">
+        <v>1905</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q609" s="61" t="s">
-        <v>1868</v>
+      <c r="Q609" s="60" t="s">
+        <v>1906</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q610" s="61" t="s">
-        <v>1869</v>
+      <c r="Q610" s="60" t="s">
+        <v>1907</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q611" s="61" t="s">
-        <v>1870</v>
+      <c r="Q611" s="60" t="s">
+        <v>1908</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q612" s="61" t="s">
-        <v>1871</v>
+      <c r="Q612" s="60" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q613" s="61" t="s">
-        <v>1872</v>
+      <c r="Q613" s="60" t="s">
+        <v>1910</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q614" s="61" t="s">
-        <v>1873</v>
+      <c r="Q614" s="60" t="s">
+        <v>1911</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q615" s="61" t="s">
-        <v>1874</v>
+      <c r="Q615" s="60" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q616" s="61" t="s">
-        <v>1875</v>
+      <c r="Q616" s="60" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q617" s="61" t="s">
-        <v>1876</v>
+      <c r="Q617" s="60" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q618" s="61" t="s">
-        <v>1877</v>
+      <c r="Q618" s="60" t="s">
+        <v>1915</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q619" s="61" t="s">
-        <v>1878</v>
+      <c r="Q619" s="60" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q620" s="61" t="s">
-        <v>1879</v>
+      <c r="Q620" s="60" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q621" s="61" t="s">
-        <v>1880</v>
+      <c r="Q621" s="60" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q622" s="61" t="s">
-        <v>1881</v>
+      <c r="Q622" s="60" t="s">
+        <v>1919</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q623" s="61" t="s">
-        <v>1882</v>
+      <c r="Q623" s="60" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q624" s="61" t="s">
-        <v>1883</v>
+      <c r="Q624" s="60" t="s">
+        <v>1921</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q625" s="61" t="s">
-        <v>1884</v>
+      <c r="Q625" s="60" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q626" s="61" t="s">
-        <v>1885</v>
+      <c r="Q626" s="60" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q627" s="61" t="s">
-        <v>1886</v>
+      <c r="Q627" s="60" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q628" s="61" t="s">
-        <v>1887</v>
+      <c r="Q628" s="60" t="s">
+        <v>1925</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q629" s="61" t="s">
-        <v>1888</v>
+      <c r="Q629" s="60" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q630" s="61" t="s">
-        <v>1889</v>
+      <c r="Q630" s="60" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q631" s="61" t="s">
-        <v>1890</v>
+      <c r="Q631" s="60" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q632" s="61" t="s">
-        <v>1891</v>
+      <c r="Q632" s="60" t="s">
+        <v>1929</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q633" s="61" t="s">
-        <v>1892</v>
+      <c r="Q633" s="60" t="s">
+        <v>1930</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q634" s="61" t="s">
-        <v>1893</v>
+      <c r="Q634" s="60" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q635" s="61" t="s">
-        <v>1894</v>
+      <c r="Q635" s="60" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q636" s="61" t="s">
-        <v>1895</v>
+      <c r="Q636" s="60" t="s">
+        <v>1933</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q637" s="61" t="s">
-        <v>1896</v>
+      <c r="Q637" s="60" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q638" s="61" t="s">
-        <v>1897</v>
+      <c r="Q638" s="60" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q639" s="61" t="s">
-        <v>1898</v>
+      <c r="Q639" s="60" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q640" s="61" t="s">
-        <v>1899</v>
+      <c r="Q640" s="60" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q641" s="61" t="s">
-        <v>1900</v>
+      <c r="Q641" s="60" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q642" s="61" t="s">
-        <v>1901</v>
+      <c r="Q642" s="60" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q643" s="61" t="s">
-        <v>1902</v>
+      <c r="Q643" s="60" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q644" s="61" t="s">
-        <v>1903</v>
+      <c r="Q644" s="60" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q645" s="61" t="s">
-        <v>1904</v>
+      <c r="Q645" s="60" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q646" s="61" t="s">
-        <v>1905</v>
+      <c r="Q646" s="60" t="s">
+        <v>1943</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q647" s="61" t="s">
-        <v>1906</v>
+      <c r="Q647" s="60" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q648" s="61" t="s">
-        <v>1907</v>
+      <c r="Q648" s="60" t="s">
+        <v>1945</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q649" s="61" t="s">
-        <v>1908</v>
+      <c r="Q649" s="60" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q650" s="61" t="s">
-        <v>1909</v>
+      <c r="Q650" s="60" t="s">
+        <v>1947</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q651" s="61" t="s">
-        <v>1910</v>
+      <c r="Q651" s="60" t="s">
+        <v>1948</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q652" s="61" t="s">
-        <v>1911</v>
+      <c r="Q652" s="60" t="s">
+        <v>1949</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q653" s="61" t="s">
-        <v>1912</v>
+      <c r="Q653" s="60" t="s">
+        <v>1950</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q654" s="61" t="s">
-        <v>1913</v>
+      <c r="Q654" s="60" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q655" s="61" t="s">
-        <v>1914</v>
+      <c r="Q655" s="60" t="s">
+        <v>1952</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q656" s="61" t="s">
-        <v>1915</v>
+      <c r="Q656" s="60" t="s">
+        <v>1953</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q657" s="61" t="s">
-        <v>1916</v>
+      <c r="Q657" s="60" t="s">
+        <v>1954</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q658" s="61" t="s">
-        <v>1917</v>
+      <c r="Q658" s="60" t="s">
+        <v>1955</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q659" s="61" t="s">
-        <v>1918</v>
+      <c r="Q659" s="60" t="s">
+        <v>1956</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q660" s="61" t="s">
-        <v>1919</v>
+      <c r="Q660" s="60" t="s">
+        <v>1957</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q661" s="61" t="s">
-        <v>1920</v>
+      <c r="Q661" s="60" t="s">
+        <v>1958</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q662" s="61" t="s">
-        <v>1921</v>
+      <c r="Q662" s="60" t="s">
+        <v>1959</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q663" s="61" t="s">
-        <v>1922</v>
+      <c r="Q663" s="60" t="s">
+        <v>1960</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q664" s="61" t="s">
-        <v>1923</v>
+      <c r="Q664" s="60" t="s">
+        <v>1961</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q665" s="61" t="s">
-        <v>1924</v>
+      <c r="Q665" s="60" t="s">
+        <v>1962</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q666" s="61" t="s">
-        <v>1925</v>
+      <c r="Q666" s="60" t="s">
+        <v>1963</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q667" s="61" t="s">
-        <v>1926</v>
+      <c r="Q667" s="60" t="s">
+        <v>1964</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q668" s="61" t="s">
-        <v>1927</v>
+      <c r="Q668" s="60" t="s">
+        <v>1965</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q669" s="61" t="s">
-        <v>1928</v>
+      <c r="Q669" s="60" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q670" s="61" t="s">
-        <v>1929</v>
+      <c r="Q670" s="60" t="s">
+        <v>1967</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q671" s="61" t="s">
-        <v>1930</v>
+      <c r="Q671" s="60" t="s">
+        <v>1968</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q672" s="61" t="s">
-        <v>1931</v>
+      <c r="Q672" s="60" t="s">
+        <v>1969</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q673" s="61" t="s">
-        <v>1932</v>
+      <c r="Q673" s="60" t="s">
+        <v>1970</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q674" s="61" t="s">
-        <v>1933</v>
+      <c r="Q674" s="60" t="s">
+        <v>1971</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q675" s="61" t="s">
-        <v>1934</v>
+      <c r="Q675" s="60" t="s">
+        <v>1972</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q676" s="61" t="s">
-        <v>1935</v>
+      <c r="Q676" s="60" t="s">
+        <v>1973</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q677" s="61" t="s">
-        <v>1936</v>
+      <c r="Q677" s="60" t="s">
+        <v>1974</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q678" s="61" t="s">
-        <v>1937</v>
+      <c r="Q678" s="60" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q679" s="61" t="s">
-        <v>1938</v>
+      <c r="Q679" s="60" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q680" s="61" t="s">
-        <v>1939</v>
+      <c r="Q680" s="60" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q681" s="61" t="s">
-        <v>1940</v>
+      <c r="Q681" s="60" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q682" s="61" t="s">
-        <v>1941</v>
+      <c r="Q682" s="60" t="s">
+        <v>1979</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q683" s="61" t="s">
-        <v>1942</v>
+      <c r="Q683" s="60" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q684" s="61" t="s">
-        <v>1943</v>
+      <c r="Q684" s="60" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q685" s="61" t="s">
-        <v>1944</v>
+      <c r="Q685" s="60" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q686" s="61" t="s">
-        <v>1945</v>
+      <c r="Q686" s="60" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q687" s="61" t="s">
-        <v>1946</v>
+      <c r="Q687" s="60" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q688" s="61" t="s">
-        <v>1947</v>
+      <c r="Q688" s="60" t="s">
+        <v>1985</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q689" s="61" t="s">
+      <c r="Q689" s="60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q690" s="61" t="s">
-        <v>1948</v>
+      <c r="Q690" s="60" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q691" s="61" t="s">
-        <v>1949</v>
+      <c r="Q691" s="60" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q692" s="61" t="s">
-        <v>1950</v>
+      <c r="Q692" s="60" t="s">
+        <v>1988</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q693" s="61" t="s">
-        <v>1951</v>
+      <c r="Q693" s="60" t="s">
+        <v>1989</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q694" s="61" t="s">
-        <v>1952</v>
+      <c r="Q694" s="60" t="s">
+        <v>1990</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q695" s="61" t="s">
-        <v>1953</v>
+      <c r="Q695" s="60" t="s">
+        <v>1991</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q696" s="61" t="s">
-        <v>1954</v>
+      <c r="Q696" s="60" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q697" s="61" t="s">
-        <v>1955</v>
+      <c r="Q697" s="60" t="s">
+        <v>1993</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q698" s="61" t="s">
-        <v>1956</v>
+      <c r="Q698" s="60" t="s">
+        <v>1994</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q699" s="61" t="s">
-        <v>1957</v>
+      <c r="Q699" s="60" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q700" s="61" t="s">
-        <v>1958</v>
+      <c r="Q700" s="60" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q701" s="61" t="s">
-        <v>1959</v>
+      <c r="Q701" s="60" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q702" s="61" t="s">
-        <v>1960</v>
+      <c r="Q702" s="60" t="s">
+        <v>1998</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q703" s="61" t="s">
-        <v>1961</v>
+      <c r="Q703" s="60" t="s">
+        <v>1999</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q704" s="61" t="s">
-        <v>1962</v>
+      <c r="Q704" s="60" t="s">
+        <v>2000</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q705" s="61" t="s">
-        <v>1963</v>
+      <c r="Q705" s="60" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q706" s="61" t="s">
-        <v>1964</v>
+      <c r="Q706" s="60" t="s">
+        <v>2002</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q707" s="61" t="s">
-        <v>1965</v>
+      <c r="Q707" s="60" t="s">
+        <v>2003</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q708" s="61" t="s">
-        <v>1966</v>
+      <c r="Q708" s="60" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q709" s="61" t="s">
-        <v>1967</v>
+      <c r="Q709" s="60" t="s">
+        <v>2005</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q710" s="61" t="s">
-        <v>1968</v>
+      <c r="Q710" s="60" t="s">
+        <v>2006</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q711" s="61" t="s">
-        <v>1969</v>
+      <c r="Q711" s="60" t="s">
+        <v>2007</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q712" s="61" t="s">
-        <v>1970</v>
+      <c r="Q712" s="60" t="s">
+        <v>2008</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q713" s="61" t="s">
-        <v>1971</v>
+      <c r="Q713" s="60" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q714" s="61" t="s">
-        <v>1972</v>
+      <c r="Q714" s="60" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q715" s="61" t="s">
-        <v>1973</v>
+      <c r="Q715" s="60" t="s">
+        <v>2011</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q716" s="61" t="s">
-        <v>1974</v>
+      <c r="Q716" s="60" t="s">
+        <v>2012</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q717" s="61" t="s">
-        <v>1975</v>
+      <c r="Q717" s="60" t="s">
+        <v>2013</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q718" s="61" t="s">
-        <v>1976</v>
+      <c r="Q718" s="60" t="s">
+        <v>2014</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q719" s="61" t="s">
-        <v>1977</v>
+      <c r="Q719" s="60" t="s">
+        <v>2015</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q720" s="61" t="s">
-        <v>1978</v>
+      <c r="Q720" s="60" t="s">
+        <v>2016</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q721" s="61" t="s">
-        <v>1979</v>
+      <c r="Q721" s="60" t="s">
+        <v>2017</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q722" s="61" t="s">
-        <v>1980</v>
+      <c r="Q722" s="60" t="s">
+        <v>2018</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q723" s="61" t="s">
-        <v>1981</v>
+      <c r="Q723" s="60" t="s">
+        <v>2019</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q724" s="61" t="s">
-        <v>1982</v>
+      <c r="Q724" s="60" t="s">
+        <v>2020</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q725" s="61" t="s">
-        <v>1983</v>
+      <c r="Q725" s="60" t="s">
+        <v>2021</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q726" s="61" t="s">
-        <v>1984</v>
+      <c r="Q726" s="60" t="s">
+        <v>2022</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q727" s="61" t="s">
-        <v>1985</v>
+      <c r="Q727" s="60" t="s">
+        <v>2023</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q728" s="61" t="s">
-        <v>1986</v>
+      <c r="Q728" s="60" t="s">
+        <v>2024</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q729" s="61" t="s">
-        <v>1987</v>
+      <c r="Q729" s="60" t="s">
+        <v>2025</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q730" s="61" t="s">
-        <v>1988</v>
+      <c r="Q730" s="60" t="s">
+        <v>2026</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q731" s="61" t="s">
-        <v>1989</v>
+      <c r="Q731" s="60" t="s">
+        <v>2027</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q732" s="61" t="s">
-        <v>1990</v>
+      <c r="Q732" s="60" t="s">
+        <v>2028</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q733" s="61" t="s">
-        <v>1991</v>
+      <c r="Q733" s="60" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q734" s="61" t="s">
-        <v>1992</v>
+      <c r="Q734" s="60" t="s">
+        <v>2030</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q735" s="61" t="s">
-        <v>1993</v>
+      <c r="Q735" s="60" t="s">
+        <v>2031</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q736" s="61" t="s">
-        <v>1994</v>
+      <c r="Q736" s="60" t="s">
+        <v>2032</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q737" s="61" t="s">
-        <v>1995</v>
+      <c r="Q737" s="60" t="s">
+        <v>2033</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q738" s="61" t="s">
+      <c r="Q738" s="60" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q739" s="61" t="s">
-        <v>1996</v>
+      <c r="Q739" s="60" t="s">
+        <v>2034</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q740" s="61" t="s">
-        <v>1997</v>
+      <c r="Q740" s="60" t="s">
+        <v>2035</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q741" s="61" t="s">
-        <v>1998</v>
+      <c r="Q741" s="60" t="s">
+        <v>2036</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q742" s="61" t="s">
+      <c r="Q742" s="60" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q743" s="61" t="s">
-        <v>1999</v>
+      <c r="Q743" s="60" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q744" s="61" t="s">
-        <v>2000</v>
+      <c r="Q744" s="60" t="s">
+        <v>2038</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q745" s="61" t="s">
-        <v>2001</v>
+      <c r="Q745" s="60" t="s">
+        <v>2039</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q746" s="61" t="s">
-        <v>2002</v>
+      <c r="Q746" s="60" t="s">
+        <v>2040</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q747" s="61" t="s">
-        <v>2003</v>
+      <c r="Q747" s="60" t="s">
+        <v>2041</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q748" s="61" t="s">
-        <v>2004</v>
+      <c r="Q748" s="60" t="s">
+        <v>2042</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q749" s="61" t="s">
-        <v>2005</v>
+      <c r="Q749" s="60" t="s">
+        <v>2043</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q750" s="61" t="s">
-        <v>2006</v>
+      <c r="Q750" s="60" t="s">
+        <v>2044</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q751" s="61" t="s">
-        <v>2007</v>
+      <c r="Q751" s="60" t="s">
+        <v>2045</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q752" s="61" t="s">
-        <v>2008</v>
+      <c r="Q752" s="60" t="s">
+        <v>2046</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q753" s="61" t="s">
-        <v>2009</v>
+      <c r="Q753" s="60" t="s">
+        <v>2047</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q754" s="61" t="s">
-        <v>2010</v>
+      <c r="Q754" s="60" t="s">
+        <v>2048</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q755" s="61" t="s">
-        <v>2011</v>
+      <c r="Q755" s="60" t="s">
+        <v>2049</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q756" s="61" t="s">
-        <v>2012</v>
+      <c r="Q756" s="60" t="s">
+        <v>2050</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q757" s="61" t="s">
-        <v>2013</v>
+      <c r="Q757" s="60" t="s">
+        <v>2051</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q758" s="61" t="s">
-        <v>2014</v>
+      <c r="Q758" s="60" t="s">
+        <v>2052</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q759" s="61" t="s">
-        <v>2015</v>
+      <c r="Q759" s="60" t="s">
+        <v>2053</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q760" s="61" t="s">
-        <v>2016</v>
+      <c r="Q760" s="60" t="s">
+        <v>2054</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q761" s="61" t="s">
-        <v>2017</v>
+      <c r="Q761" s="60" t="s">
+        <v>2055</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q762" s="61" t="s">
-        <v>2018</v>
+      <c r="Q762" s="60" t="s">
+        <v>2056</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q763" s="61" t="s">
-        <v>2019</v>
+      <c r="Q763" s="60" t="s">
+        <v>2057</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q764" s="61" t="s">
-        <v>2020</v>
+      <c r="Q764" s="60" t="s">
+        <v>2058</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q765" s="61" t="s">
-        <v>2021</v>
+      <c r="Q765" s="60" t="s">
+        <v>2059</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q766" s="61" t="s">
-        <v>2022</v>
+      <c r="Q766" s="60" t="s">
+        <v>2060</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q767" s="61" t="s">
-        <v>2023</v>
+      <c r="Q767" s="60" t="s">
+        <v>2061</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q768" s="61" t="s">
-        <v>2024</v>
+      <c r="Q768" s="60" t="s">
+        <v>2062</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q769" s="61" t="s">
-        <v>2025</v>
+      <c r="Q769" s="60" t="s">
+        <v>2063</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q770" s="61" t="s">
-        <v>2026</v>
+      <c r="Q770" s="60" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q771" s="61" t="s">
-        <v>2027</v>
+      <c r="Q771" s="60" t="s">
+        <v>2065</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q772" s="61" t="s">
-        <v>2028</v>
+      <c r="Q772" s="60" t="s">
+        <v>2066</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q773" s="61" t="s">
-        <v>2029</v>
+      <c r="Q773" s="60" t="s">
+        <v>2067</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q774" s="61" t="s">
-        <v>2030</v>
+      <c r="Q774" s="60" t="s">
+        <v>2068</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q775" s="61" t="s">
-        <v>2031</v>
+      <c r="Q775" s="60" t="s">
+        <v>2069</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q776" s="61" t="s">
-        <v>2032</v>
+      <c r="Q776" s="60" t="s">
+        <v>2070</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q777" s="61" t="s">
-        <v>2033</v>
+      <c r="Q777" s="60" t="s">
+        <v>2071</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q778" s="61" t="s">
-        <v>2034</v>
+      <c r="Q778" s="60" t="s">
+        <v>2072</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q779" s="61" t="s">
-        <v>2035</v>
+      <c r="Q779" s="60" t="s">
+        <v>2073</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q780" s="61" t="s">
-        <v>2036</v>
+      <c r="Q780" s="60" t="s">
+        <v>2074</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q781" s="61" t="s">
-        <v>2037</v>
+      <c r="Q781" s="60" t="s">
+        <v>2075</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q782" s="61" t="s">
-        <v>2038</v>
+      <c r="Q782" s="60" t="s">
+        <v>2076</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q783" s="61" t="s">
-        <v>2039</v>
+      <c r="Q783" s="60" t="s">
+        <v>2077</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q784" s="61" t="s">
-        <v>2040</v>
+      <c r="Q784" s="60" t="s">
+        <v>2078</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q785" s="61" t="s">
-        <v>2041</v>
+      <c r="Q785" s="60" t="s">
+        <v>2079</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q786" s="61" t="s">
-        <v>2042</v>
+      <c r="Q786" s="60" t="s">
+        <v>2080</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q787" s="61" t="s">
-        <v>2043</v>
+      <c r="Q787" s="60" t="s">
+        <v>2081</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q788" s="61" t="s">
-        <v>2044</v>
+      <c r="Q788" s="60" t="s">
+        <v>2082</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q789" s="61" t="s">
-        <v>2045</v>
+      <c r="Q789" s="60" t="s">
+        <v>2083</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q790" s="61" t="s">
-        <v>2046</v>
+      <c r="Q790" s="60" t="s">
+        <v>2084</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q791" s="61" t="s">
-        <v>2047</v>
+      <c r="Q791" s="60" t="s">
+        <v>2085</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q792" s="61" t="s">
-        <v>2048</v>
+      <c r="Q792" s="60" t="s">
+        <v>2086</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q793" s="61" t="s">
-        <v>2049</v>
+      <c r="Q793" s="60" t="s">
+        <v>2087</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q794" s="61" t="s">
-        <v>2050</v>
+      <c r="Q794" s="60" t="s">
+        <v>2088</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q795" s="61" t="s">
-        <v>2051</v>
+      <c r="Q795" s="60" t="s">
+        <v>2089</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q796" s="61" t="s">
-        <v>2052</v>
+      <c r="Q796" s="60" t="s">
+        <v>2090</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q797" s="61" t="s">
-        <v>2053</v>
+      <c r="Q797" s="60" t="s">
+        <v>2091</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q798" s="61" t="s">
-        <v>2054</v>
+      <c r="Q798" s="60" t="s">
+        <v>2092</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q799" s="61" t="s">
-        <v>2055</v>
+      <c r="Q799" s="60" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q800" s="61" t="s">
-        <v>2056</v>
+      <c r="Q800" s="60" t="s">
+        <v>2094</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q801" s="61" t="s">
-        <v>2057</v>
+      <c r="Q801" s="60" t="s">
+        <v>2095</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q802" s="61" t="s">
-        <v>2058</v>
+      <c r="Q802" s="60" t="s">
+        <v>2096</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q803" s="61" t="s">
-        <v>2059</v>
+      <c r="Q803" s="60" t="s">
+        <v>2097</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q804" s="61" t="s">
-        <v>2060</v>
+      <c r="Q804" s="60" t="s">
+        <v>2098</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q805" s="61" t="s">
-        <v>2061</v>
+      <c r="Q805" s="60" t="s">
+        <v>2099</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q806" s="61" t="s">
-        <v>2062</v>
+      <c r="Q806" s="60" t="s">
+        <v>2100</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q807" s="61" t="s">
-        <v>2063</v>
+      <c r="Q807" s="60" t="s">
+        <v>2101</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q808" s="61" t="s">
-        <v>2064</v>
+      <c r="Q808" s="60" t="s">
+        <v>2102</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q809" s="61" t="s">
-        <v>2065</v>
+      <c r="Q809" s="60" t="s">
+        <v>2103</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q810" s="61" t="s">
-        <v>2066</v>
+      <c r="Q810" s="60" t="s">
+        <v>2104</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q811" s="61" t="s">
-        <v>2067</v>
+      <c r="Q811" s="60" t="s">
+        <v>2105</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q812" s="61" t="s">
-        <v>2068</v>
+      <c r="Q812" s="60" t="s">
+        <v>2106</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q813" s="61" t="s">
-        <v>2069</v>
+      <c r="Q813" s="60" t="s">
+        <v>2107</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q814" s="61" t="s">
-        <v>2070</v>
+      <c r="Q814" s="60" t="s">
+        <v>2108</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q815" s="61" t="s">
-        <v>2071</v>
+      <c r="Q815" s="60" t="s">
+        <v>2109</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q816" s="61" t="s">
-        <v>2072</v>
+      <c r="Q816" s="60" t="s">
+        <v>2110</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q817" s="61" t="s">
-        <v>2073</v>
+      <c r="Q817" s="60" t="s">
+        <v>2111</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q818" s="61" t="s">
-        <v>2074</v>
+      <c r="Q818" s="60" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q819" s="61" t="s">
-        <v>2075</v>
+      <c r="Q819" s="60" t="s">
+        <v>2113</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q820" s="61" t="s">
-        <v>2076</v>
+      <c r="Q820" s="60" t="s">
+        <v>2114</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q821" s="61" t="s">
-        <v>2077</v>
+      <c r="Q821" s="60" t="s">
+        <v>2115</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q822" s="61" t="s">
-        <v>2078</v>
+      <c r="Q822" s="60" t="s">
+        <v>2116</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q823" s="61" t="s">
-        <v>2079</v>
+      <c r="Q823" s="60" t="s">
+        <v>2117</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q824" s="61" t="s">
-        <v>2080</v>
+      <c r="Q824" s="60" t="s">
+        <v>2118</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q825" s="61" t="s">
-        <v>2081</v>
+      <c r="Q825" s="60" t="s">
+        <v>2119</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q826" s="61" t="s">
-        <v>2082</v>
+      <c r="Q826" s="60" t="s">
+        <v>2120</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q827" s="61" t="s">
-        <v>2083</v>
+      <c r="Q827" s="60" t="s">
+        <v>2121</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q828" s="61" t="s">
-        <v>2084</v>
+      <c r="Q828" s="60" t="s">
+        <v>2122</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q829" s="61" t="s">
-        <v>2085</v>
+      <c r="Q829" s="60" t="s">
+        <v>2123</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q830" s="61" t="s">
-        <v>2086</v>
+      <c r="Q830" s="60" t="s">
+        <v>2124</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q831" s="61" t="s">
-        <v>2087</v>
+      <c r="Q831" s="60" t="s">
+        <v>2125</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q832" s="61" t="s">
-        <v>2088</v>
+      <c r="Q832" s="60" t="s">
+        <v>2126</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q833" s="61" t="s">
-        <v>2089</v>
+      <c r="Q833" s="60" t="s">
+        <v>2127</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q834" s="61" t="s">
-        <v>2090</v>
+      <c r="Q834" s="60" t="s">
+        <v>2128</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q835" s="61" t="s">
-        <v>2091</v>
+      <c r="Q835" s="60" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q836" s="61" t="s">
-        <v>2092</v>
+      <c r="Q836" s="60" t="s">
+        <v>2130</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q837" s="61" t="s">
-        <v>2093</v>
+      <c r="Q837" s="60" t="s">
+        <v>2131</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q838" s="61" t="s">
-        <v>2094</v>
+      <c r="Q838" s="60" t="s">
+        <v>2132</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q839" s="61" t="s">
-        <v>2095</v>
+      <c r="Q839" s="60" t="s">
+        <v>2133</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q840" s="61" t="s">
-        <v>2096</v>
+      <c r="Q840" s="60" t="s">
+        <v>2134</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q841" s="61" t="s">
-        <v>2097</v>
+      <c r="Q841" s="60" t="s">
+        <v>2135</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q842" s="61" t="s">
-        <v>2098</v>
+      <c r="Q842" s="60" t="s">
+        <v>2136</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q843" s="61" t="s">
-        <v>2099</v>
+      <c r="Q843" s="60" t="s">
+        <v>2137</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q844" s="61" t="s">
-        <v>2100</v>
+      <c r="Q844" s="60" t="s">
+        <v>2138</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q845" s="61" t="s">
-        <v>2101</v>
+      <c r="Q845" s="60" t="s">
+        <v>2139</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q846" s="61" t="s">
-        <v>2102</v>
+      <c r="Q846" s="60" t="s">
+        <v>2140</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q847" s="61" t="s">
-        <v>2103</v>
+      <c r="Q847" s="60" t="s">
+        <v>2141</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q848" s="61" t="s">
-        <v>2104</v>
+      <c r="Q848" s="60" t="s">
+        <v>2142</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q849" s="61" t="s">
-        <v>2105</v>
+      <c r="Q849" s="60" t="s">
+        <v>2143</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q850" s="61" t="s">
-        <v>2106</v>
+      <c r="Q850" s="60" t="s">
+        <v>2144</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q851" s="61" t="s">
-        <v>2107</v>
+      <c r="Q851" s="60" t="s">
+        <v>2145</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q852" s="61" t="s">
-        <v>2108</v>
+      <c r="Q852" s="60" t="s">
+        <v>2146</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q853" s="61" t="s">
-        <v>2109</v>
+      <c r="Q853" s="60" t="s">
+        <v>2147</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q854" s="61" t="s">
-        <v>2110</v>
+      <c r="Q854" s="60" t="s">
+        <v>2148</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q855" s="61" t="s">
-        <v>2111</v>
+      <c r="Q855" s="60" t="s">
+        <v>2149</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q856" s="61" t="s">
-        <v>2112</v>
+      <c r="Q856" s="60" t="s">
+        <v>2150</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q857" s="61" t="s">
+      <c r="Q857" s="60" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q858" s="61" t="s">
-        <v>2113</v>
+      <c r="Q858" s="60" t="s">
+        <v>2151</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q859" s="61"/>
+      <c r="Q859" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
